--- a/data/pds.xlsx
+++ b/data/pds.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
-    <t>CRR2</t>
-  </si>
-  <si>
     <t>MODEL</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>tertiary</t>
+  </si>
+  <si>
+    <t>CRR</t>
   </si>
 </sst>
 </file>
@@ -468,119 +468,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R61"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="2">
-        <v>1.1422257994275244E-4</v>
+        <v>1.1461369915678055E-4</v>
       </c>
       <c r="D2" s="2">
-        <v>1.6941888431538051E-3</v>
+        <v>1.6906689748993943E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>1.8078202468400373E-3</v>
+        <v>1.8019309873881803E-3</v>
       </c>
       <c r="F2" s="2">
-        <v>2.1199047426925482E-3</v>
+        <v>2.1329257861483638E-3</v>
       </c>
       <c r="G2" s="2">
-        <v>3.0750103546831934E-3</v>
+        <v>3.0739774959194803E-3</v>
       </c>
       <c r="H2" s="2">
-        <v>5.0815862331219938E-3</v>
+        <v>5.0830554666317345E-3</v>
       </c>
       <c r="I2" s="2">
-        <v>6.3063425106337665E-3</v>
+        <v>6.3077044564143125E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>7.4041014220984558E-3</v>
+        <v>7.4053396680925912E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>8.3658820540724287E-3</v>
+        <v>8.3669831838438583E-3</v>
       </c>
       <c r="L2" s="2">
-        <v>9.1923600678388475E-3</v>
+        <v>9.1933178036076244E-3</v>
       </c>
       <c r="M2" s="2">
-        <v>9.8897811954012996E-3</v>
+        <v>9.8905965121942729E-3</v>
       </c>
       <c r="N2" s="2">
-        <v>1.0467761135110028E-2</v>
+        <v>1.0468440670533626E-2</v>
       </c>
       <c r="O2" s="2">
-        <v>1.0937729537338837E-2</v>
+        <v>1.09382836341173E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>1.1311782042236609E-2</v>
+        <v>1.1312223023847583E-2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.1601878040094004E-2</v>
+        <v>1.1602218907072867E-2</v>
       </c>
       <c r="R2" s="2">
         <v>1.1601878040094004E-2</v>
@@ -588,55 +588,55 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>2.4377889480059437E-4</v>
+        <v>2.4455333385735658E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>2.8588681917067825E-3</v>
+        <v>2.8532086201239794E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>2.7323984225615344E-3</v>
+        <v>2.7238997257519495E-3</v>
       </c>
       <c r="F3" s="2">
-        <v>3.0254708050120077E-3</v>
+        <v>3.0442133011720266E-3</v>
       </c>
       <c r="G3" s="2">
-        <v>4.1921367686848232E-3</v>
+        <v>4.1905372387100008E-3</v>
       </c>
       <c r="H3" s="2">
-        <v>6.6347933917238833E-3</v>
+        <v>6.6365264414587587E-3</v>
       </c>
       <c r="I3" s="2">
-        <v>7.9212499109148314E-3</v>
+        <v>7.9227621393295634E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>9.0100766941792684E-3</v>
+        <v>9.0113876318296607E-3</v>
       </c>
       <c r="K3" s="2">
-        <v>9.9160204912992021E-3</v>
+        <v>9.9171408958329231E-3</v>
       </c>
       <c r="L3" s="2">
-        <v>1.0657447344754189E-2</v>
+        <v>1.0658387966679981E-2</v>
       </c>
       <c r="M3" s="2">
-        <v>1.1253283302087585E-2</v>
+        <v>1.1254057384069387E-2</v>
       </c>
       <c r="N3" s="2">
-        <v>1.1721993072470852E-2</v>
+        <v>1.1722616129449361E-2</v>
       </c>
       <c r="O3" s="2">
-        <v>1.2081007486652738E-2</v>
+        <v>1.2081496241592313E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>1.2346346866036603E-2</v>
+        <v>1.2346718164448302E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.2532409468384817E-2</v>
+        <v>1.2532679453704947E-2</v>
       </c>
       <c r="R3" s="2">
         <v>1.2532409468384817E-2</v>
@@ -644,55 +644,55 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4.5964085368771095E-4</v>
+        <v>4.6102300558558437E-4</v>
       </c>
       <c r="D4" s="2">
-        <v>4.4812872508585254E-3</v>
+        <v>4.472832769424142E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>3.8541383714334855E-3</v>
+        <v>3.8424525054478543E-3</v>
       </c>
       <c r="F4" s="2">
-        <v>4.0064022710767089E-3</v>
+        <v>4.0313986536863475E-3</v>
       </c>
       <c r="G4" s="2">
-        <v>5.2866133531342344E-3</v>
+        <v>5.2844179672211925E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>8.0166770790050731E-3</v>
+        <v>8.0186248779050943E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>9.2226641196047187E-3</v>
+        <v>9.2242698310992348E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>1.0181843945821547E-2</v>
+        <v>1.0183179126259352E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>1.0935652416958668E-2</v>
+        <v>1.0936759552017275E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>1.152027419939233E-2</v>
+        <v>1.1521182915414891E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>1.1965441483018934E-2</v>
+        <v>1.1966176035303096E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>1.2295528793150337E-2</v>
+        <v>1.2296110954626472E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>1.2530668266732787E-2</v>
+        <v>1.2531118157360055E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>1.2687581157508584E-2</v>
+        <v>1.2687917309211014E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.2780187690263274E-2</v>
+        <v>1.2780426923840777E-2</v>
       </c>
       <c r="R4" s="2">
         <v>1.2780187690263274E-2</v>
@@ -700,55 +700,55 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>8.876462652437745E-4</v>
+        <v>8.9011457994444371E-4</v>
       </c>
       <c r="D5" s="2">
-        <v>7.0187214010543784E-3</v>
+        <v>7.0059093813760135E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>5.4008507095553914E-3</v>
+        <v>5.3848822296373843E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>5.2720124697016217E-3</v>
+        <v>5.3052095826151089E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>6.622949638672603E-3</v>
+        <v>6.6199941955449454E-3</v>
       </c>
       <c r="H5" s="2">
-        <v>9.6218908469667234E-3</v>
+        <v>9.6240723277225201E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>1.0666680635004009E-2</v>
+        <v>1.0668361687680011E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>1.1431552547054294E-2</v>
+        <v>1.1432878555563575E-2</v>
       </c>
       <c r="K5" s="2">
-        <v>1.1984797648956784E-2</v>
+        <v>1.1985854144865703E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>1.2378378760412222E-2</v>
+        <v>1.2379219639512619E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>1.2649960766561779E-2</v>
+        <v>1.2650623623157583E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>1.282699167108683E-2</v>
+        <v>1.2827505337409395E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>1.2929890958296523E-2</v>
+        <v>1.2930279018342596E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>1.297418844707462E-2</v>
+        <v>1.2974470849558621E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.2971919383955007E-2</v>
+        <v>1.2972113219043707E-2</v>
       </c>
       <c r="R5" s="2">
         <v>1.2971919383955007E-2</v>
@@ -756,55 +756,55 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>1.476970709551176E-3</v>
+        <v>1.4807279227108696E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>9.7203719445781381E-3</v>
+        <v>9.702681244287711E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>6.8732818295796465E-3</v>
+        <v>6.8534009906041785E-3</v>
       </c>
       <c r="F6" s="2">
-        <v>6.4298461328670181E-3</v>
+        <v>6.4706867599134766E-3</v>
       </c>
       <c r="G6" s="2">
-        <v>7.7985736688915615E-3</v>
+        <v>7.7948684061194158E-3</v>
       </c>
       <c r="H6" s="2">
-        <v>1.0977525654245217E-2</v>
+        <v>1.0979849637497622E-2</v>
       </c>
       <c r="I6" s="2">
-        <v>1.1840099976403279E-2</v>
+        <v>1.1841786194331199E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>1.2415743359824889E-2</v>
+        <v>1.2417004923771079E-2</v>
       </c>
       <c r="K6" s="2">
-        <v>1.2789466434741598E-2</v>
+        <v>1.2790428627860093E-2</v>
       </c>
       <c r="L6" s="2">
-        <v>1.3021283356528433E-2</v>
+        <v>1.3022022334810658E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>1.315155629459416E-2</v>
+        <v>1.3152121510327706E-2</v>
       </c>
       <c r="N6" s="2">
-        <v>1.3207539813409847E-2</v>
+        <v>1.3207965916489336E-2</v>
       </c>
       <c r="O6" s="2">
-        <v>1.3208075627953746E-2</v>
+        <v>1.3208388574886057E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>1.3166574800857611E-2</v>
+        <v>1.3166794994446984E-2</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.3092855633211201E-2</v>
+        <v>1.3092999594095326E-2</v>
       </c>
       <c r="R6" s="2">
         <v>1.3092855633211201E-2</v>
@@ -812,55 +812,55 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>2.4428309861863817E-3</v>
+        <v>2.4484719661808266E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.3350291725230581E-2</v>
+        <v>1.3325996652617073E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>8.6577588540250085E-3</v>
+        <v>8.6332258885475962E-3</v>
       </c>
       <c r="F7" s="2">
-        <v>7.7525517782590604E-3</v>
+        <v>7.8023033453467599E-3</v>
       </c>
       <c r="G7" s="2">
-        <v>9.0697512852629183E-3</v>
+        <v>9.0652635534501803E-3</v>
       </c>
       <c r="H7" s="2">
-        <v>1.2369552477642409E-2</v>
+        <v>1.2372084261072667E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>1.298541305843646E-2</v>
+        <v>1.2987146000988485E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>1.3330392574398687E-2</v>
+        <v>1.3331621233884379E-2</v>
       </c>
       <c r="K7" s="2">
-        <v>1.3499580176828592E-2</v>
+        <v>1.3500476839406444E-2</v>
       </c>
       <c r="L7" s="2">
-        <v>1.3556264719238374E-2</v>
+        <v>1.3556930567423769E-2</v>
       </c>
       <c r="M7" s="2">
-        <v>1.3539887955036092E-2</v>
+        <v>1.3540384822174003E-2</v>
       </c>
       <c r="N7" s="2">
-        <v>1.3474817055911682E-2</v>
+        <v>1.3475185042374986E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>1.3376370864074305E-2</v>
+        <v>1.3376637705501279E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>1.3254477633731986E-2</v>
+        <v>1.3254663645142675E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.3115806552120897E-2</v>
+        <v>1.3115927283452143E-2</v>
       </c>
       <c r="R7" s="2">
         <v>1.3115806552120897E-2</v>
@@ -868,55 +868,55 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>5.0824798021795762E-3</v>
+        <v>5.0932657342257891E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>1.9016616196275555E-2</v>
+        <v>1.8982773404211173E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>1.0503443088884554E-2</v>
+        <v>1.0474368246290638E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>8.9488237347181091E-3</v>
+        <v>9.006874225919087E-3</v>
       </c>
       <c r="G8" s="2">
-        <v>1.0121406875138073E-2</v>
+        <v>1.0116035992445753E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>1.3426226155479433E-2</v>
+        <v>1.3428710388332547E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>1.3786212140867006E-2</v>
+        <v>1.37878063957003E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>1.3926066545498498E-2</v>
+        <v>1.3927128836778309E-2</v>
       </c>
       <c r="K8" s="2">
-        <v>1.3932181546745791E-2</v>
+        <v>1.3932914715342507E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>1.3859558605943699E-2</v>
+        <v>1.3860077372203034E-2</v>
       </c>
       <c r="M8" s="2">
-        <v>1.3740521292146904E-2</v>
+        <v>1.3740892402499004E-2</v>
       </c>
       <c r="N8" s="2">
-        <v>1.3593688640892405E-2</v>
+        <v>1.3593952866662685E-2</v>
       </c>
       <c r="O8" s="2">
-        <v>1.3429882757604492E-2</v>
+        <v>1.3430066534851383E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>1.3255561927589388E-2</v>
+        <v>1.3255683465420715E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.3074725261530629E-2</v>
+        <v>1.3074797782470499E-2</v>
       </c>
       <c r="R8" s="2">
         <v>1.3074725261530629E-2</v>
@@ -924,55 +924,55 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>7.9258247616147293E-3</v>
+        <v>7.941744426100043E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.3213581499659613E-2</v>
+        <v>2.3172106597970941E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>1.15756867589714E-2</v>
+        <v>1.1543622430298151E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>9.5860289877896122E-3</v>
+        <v>9.648597966620839E-3</v>
       </c>
       <c r="G9" s="2">
-        <v>1.064134884548993E-2</v>
+        <v>1.0635510114421303E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>1.391179789518664E-2</v>
+        <v>1.3914261526216623E-2</v>
       </c>
       <c r="I9" s="2">
-        <v>1.4124650712654702E-2</v>
+        <v>1.4126184115848116E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>1.4153296234868469E-2</v>
+        <v>1.4154285255411309E-2</v>
       </c>
       <c r="K9" s="2">
-        <v>1.4074420106196875E-2</v>
+        <v>1.4075082752632443E-2</v>
       </c>
       <c r="L9" s="2">
-        <v>1.3936464498966071E-2</v>
+        <v>1.3936922397637642E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>1.3766969395182117E-2</v>
+        <v>1.3767291620041113E-2</v>
       </c>
       <c r="N9" s="2">
-        <v>1.3581000605838583E-2</v>
+        <v>1.3581227961203072E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>1.3386734528838316E-2</v>
+        <v>1.3386892452493282E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>1.3188655682871709E-2</v>
+        <v>1.3188761009182023E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.2989283062048801E-2</v>
+        <v>1.2989347583395081E-2</v>
       </c>
       <c r="R9" s="2">
         <v>1.2989283062048801E-2</v>
@@ -980,55 +980,55 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>1.2339644585628654E-2</v>
+        <v>1.2363031549790977E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>2.7859007649559616E-2</v>
+        <v>2.7808080410017522E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>1.2490918840236573E-2</v>
+        <v>1.2455667001886035E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>1.0076967439466653E-2</v>
+        <v>1.0143115370777929E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>1.1003255755852665E-2</v>
+        <v>1.0997068228965113E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>1.4214000109697337E-2</v>
+        <v>1.4216468033341815E-2</v>
       </c>
       <c r="I10" s="2">
-        <v>1.4304093772427614E-2</v>
+        <v>1.4305603376714713E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>1.4244396328419597E-2</v>
+        <v>1.4245349300907404E-2</v>
       </c>
       <c r="K10" s="2">
-        <v>1.4100051563988905E-2</v>
+        <v>1.4100678437118444E-2</v>
       </c>
       <c r="L10" s="2">
-        <v>1.3913032367234264E-2</v>
+        <v>1.3913461256228622E-2</v>
       </c>
       <c r="M10" s="2">
-        <v>1.3706595343490162E-2</v>
+        <v>1.3706897725598998E-2</v>
       </c>
       <c r="N10" s="2">
-        <v>1.3492761701420506E-2</v>
+        <v>1.3492978589387864E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>1.3277491264367494E-2</v>
+        <v>1.3277647291616302E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>1.3063638894628216E-2</v>
+        <v>1.3063749717145808E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.2852515647890346E-2</v>
+        <v>1.2852591821714191E-2</v>
       </c>
       <c r="R10" s="2">
         <v>1.2852515647890346E-2</v>
@@ -1036,55 +1036,55 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>1.2405912038573136E-2</v>
+        <v>1.2429395060161481E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>2.8312455994800947E-2</v>
+        <v>2.8261264797060662E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>1.2718605745164153E-2</v>
+        <v>1.2682659946652592E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>1.0177389998750426E-2</v>
+        <v>1.0244074886616127E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>1.1055166717417944E-2</v>
+        <v>1.1049010531198873E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>1.4242680756860799E-2</v>
+        <v>1.4245176067630752E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>1.4315236530002771E-2</v>
+        <v>1.4316758077346422E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>1.4245738575084892E-2</v>
+        <v>1.4246696708702752E-2</v>
       </c>
       <c r="K11" s="2">
-        <v>1.4095886210947331E-2</v>
+        <v>1.4096515470776476E-2</v>
       </c>
       <c r="L11" s="2">
-        <v>1.3905693875727173E-2</v>
+        <v>1.3906124197374414E-2</v>
       </c>
       <c r="M11" s="2">
-        <v>1.3697361543099987E-2</v>
+        <v>1.3697665199903137E-2</v>
       </c>
       <c r="N11" s="2">
-        <v>1.3482350682881223E-2</v>
+        <v>1.3482569008931454E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>1.3266323875462555E-2</v>
+        <v>1.3266481609986497E-2</v>
       </c>
       <c r="P11" s="2">
-        <v>1.3051975161174302E-2</v>
+        <v>1.3052087971889668E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.2840525649615568E-2</v>
+        <v>1.2840604066463404E-2</v>
       </c>
       <c r="R11" s="2">
         <v>1.2840525649615568E-2</v>
@@ -1092,55 +1092,55 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>1.2470794664697632E-2</v>
+        <v>1.2494371583014341E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>2.876020379327426E-2</v>
+        <v>2.8708755420273773E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>1.2944090841769861E-2</v>
+        <v>1.290745756378601E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>1.0276013164985836E-2</v>
+        <v>1.0343223343211768E-2</v>
       </c>
       <c r="G12" s="2">
-        <v>1.1105265911833065E-2</v>
+        <v>1.1099142810802232E-2</v>
       </c>
       <c r="H12" s="2">
-        <v>1.4269483085357743E-2</v>
+        <v>1.4272006188369124E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>1.4324967828288529E-2</v>
+        <v>1.4326501785997535E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>1.4246052731622619E-2</v>
+        <v>1.4247016476200532E-2</v>
       </c>
       <c r="K12" s="2">
-        <v>1.4090983683416235E-2</v>
+        <v>1.40916157294872E-2</v>
       </c>
       <c r="L12" s="2">
-        <v>1.3897834067874213E-2</v>
+        <v>1.3898266162711618E-2</v>
       </c>
       <c r="M12" s="2">
-        <v>1.3687767098209749E-2</v>
+        <v>1.3688072313225524E-2</v>
       </c>
       <c r="N12" s="2">
-        <v>1.3471700269438549E-2</v>
+        <v>1.3471920266098038E-2</v>
       </c>
       <c r="O12" s="2">
-        <v>1.325501013488212E-2</v>
+        <v>1.3255169765218341E-2</v>
       </c>
       <c r="P12" s="2">
-        <v>1.3040237629590334E-2</v>
+        <v>1.3040352579735891E-2</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.2828519219523053E-2</v>
+        <v>1.2828599999227296E-2</v>
       </c>
       <c r="R12" s="2">
         <v>1.2828519219523053E-2</v>
@@ -1148,55 +1148,55 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>1.2534763577546713E-2</v>
+        <v>1.2558432922531273E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>2.9205310790408192E-2</v>
+        <v>2.9153610108885255E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>1.3168889254432213E-2</v>
+        <v>1.3131570371119828E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>1.0373534034887949E-2</v>
+        <v>1.0441261638156896E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>1.1153946332546875E-2</v>
+        <v>1.1147858204687548E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>1.4294660290563258E-2</v>
+        <v>1.4297211755124481E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>1.4333416274880632E-2</v>
+        <v>1.4334963171147297E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>1.4245392722239672E-2</v>
+        <v>1.4246362544035522E-2</v>
       </c>
       <c r="K13" s="2">
-        <v>1.4085352529864729E-2</v>
+        <v>1.4085987761144883E-2</v>
       </c>
       <c r="L13" s="2">
-        <v>1.3889433045253219E-2</v>
+        <v>1.3889867248671474E-2</v>
       </c>
       <c r="M13" s="2">
-        <v>1.3677773541232513E-2</v>
+        <v>1.3678080593591348E-2</v>
       </c>
       <c r="N13" s="2">
-        <v>1.346075936048219E-2</v>
+        <v>1.3460981258678496E-2</v>
       </c>
       <c r="O13" s="2">
-        <v>1.3243490032799163E-2</v>
+        <v>1.3243651749213957E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>1.302835983558436E-2</v>
+        <v>1.3028477081349341E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.2816425139047316E-2</v>
+        <v>1.2816508409280268E-2</v>
       </c>
       <c r="R13" s="2">
         <v>1.2816425139047316E-2</v>
@@ -1204,55 +1204,55 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>1.7573845797482564E-2</v>
+        <v>1.7603672439088922E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>3.5255548001424455E-2</v>
+        <v>3.5198806084579419E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>1.5140809350479892E-2</v>
+        <v>1.509788644661187E-2</v>
       </c>
       <c r="F14" s="2">
-        <v>1.1227731737372503E-2</v>
+        <v>1.1300470594585797E-2</v>
       </c>
       <c r="G14" s="2">
-        <v>1.1614921908032181E-2</v>
+        <v>1.1609054967386947E-2</v>
       </c>
       <c r="H14" s="2">
-        <v>1.4561349258419969E-2</v>
+        <v>1.45641679248625E-2</v>
       </c>
       <c r="I14" s="2">
-        <v>1.4431251759744091E-2</v>
+        <v>1.4432919246464599E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>1.4241909127260916E-2</v>
+        <v>1.4242929833631734E-2</v>
       </c>
       <c r="K14" s="2">
-        <v>1.4020015365307602E-2</v>
+        <v>1.4020667891841037E-2</v>
       </c>
       <c r="L14" s="2">
-        <v>1.3785227127035199E-2</v>
+        <v>1.3785662219592492E-2</v>
       </c>
       <c r="M14" s="2">
-        <v>1.3548294829026301E-2</v>
+        <v>1.3548594654159776E-2</v>
       </c>
       <c r="N14" s="2">
-        <v>1.331429777629339E-2</v>
+        <v>1.3314508386183558E-2</v>
       </c>
       <c r="O14" s="2">
-        <v>1.3085306812872982E-2</v>
+        <v>1.3085455193110407E-2</v>
       </c>
       <c r="P14" s="2">
-        <v>1.2861945072045014E-2</v>
+        <v>1.2862047949948876E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.2644196424929231E-2</v>
+        <v>1.2644264818644165E-2</v>
       </c>
       <c r="R14" s="2">
         <v>1.2644196424929231E-2</v>
@@ -1260,55 +1260,55 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>2.4487616435522885E-2</v>
+        <v>2.4524574076970531E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>4.2091242191751546E-2</v>
+        <v>4.2030955843466278E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>1.7234020797196943E-2</v>
+        <v>1.7184621973180221E-2</v>
       </c>
       <c r="F15" s="2">
-        <v>1.1929229697650754E-2</v>
+        <v>1.2005483484124458E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>1.1812966648402142E-2</v>
+        <v>1.1807604223641421E-2</v>
       </c>
       <c r="H15" s="2">
-        <v>1.4492436870544754E-2</v>
+        <v>1.4495464852965241E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>1.4240798619371307E-2</v>
+        <v>1.4242539208057684E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>1.3997797288529503E-2</v>
+        <v>1.3998830568766467E-2</v>
       </c>
       <c r="K15" s="2">
-        <v>1.3755132401327119E-2</v>
+        <v>1.3755771221909577E-2</v>
       </c>
       <c r="L15" s="2">
-        <v>1.3514945303426113E-2</v>
+        <v>1.3515355972203652E-2</v>
       </c>
       <c r="M15" s="2">
-        <v>1.3279512559767285E-2</v>
+        <v>1.3279784247605498E-2</v>
       </c>
       <c r="N15" s="2">
-        <v>1.3049916310164616E-2</v>
+        <v>1.3050098138925294E-2</v>
       </c>
       <c r="O15" s="2">
-        <v>1.2826389776065672E-2</v>
+        <v>1.2826510001077967E-2</v>
       </c>
       <c r="P15" s="2">
-        <v>1.2608740243459392E-2</v>
+        <v>1.2608816050586363E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.2396610183845698E-2</v>
+        <v>1.2396652695129778E-2</v>
       </c>
       <c r="R15" s="2">
         <v>1.2396610183845698E-2</v>
@@ -1316,55 +1316,55 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>3.746149023496767E-2</v>
+        <v>3.7510299734520039E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>5.2707413046340391E-2</v>
+        <v>5.2641174348900331E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>2.0169524098086016E-2</v>
+        <v>2.0111838565427208E-2</v>
       </c>
       <c r="F16" s="2">
-        <v>1.289987270997562E-2</v>
+        <v>1.2981015409875205E-2</v>
       </c>
       <c r="G16" s="2">
-        <v>1.2122329611447713E-2</v>
+        <v>1.2117511025528691E-2</v>
       </c>
       <c r="H16" s="2">
-        <v>1.4474869666070315E-2</v>
+        <v>1.4478153370273646E-2</v>
       </c>
       <c r="I16" s="2">
-        <v>1.4061182544668706E-2</v>
+        <v>1.4063014457318985E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>1.3738221750301826E-2</v>
+        <v>1.3739273628729546E-2</v>
       </c>
       <c r="K16" s="2">
-        <v>1.3454947469638521E-2</v>
+        <v>1.3455572357242939E-2</v>
       </c>
       <c r="L16" s="2">
-        <v>1.3193314188802471E-2</v>
+        <v>1.3193696280039378E-2</v>
       </c>
       <c r="M16" s="2">
-        <v>1.2946058757079893E-2</v>
+        <v>1.2946295260702409E-2</v>
       </c>
       <c r="N16" s="2">
-        <v>1.2709718922010614E-2</v>
+        <v>1.2709862597010532E-2</v>
       </c>
       <c r="O16" s="2">
-        <v>1.2482327203800532E-2</v>
+        <v>1.2482407960329147E-2</v>
       </c>
       <c r="P16" s="2">
-        <v>1.2262593713626617E-2</v>
+        <v>1.2262629495002998E-2</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.2049587394072308E-2</v>
+        <v>1.2049589672758581E-2</v>
       </c>
       <c r="R16" s="2">
         <v>1.2049587394072308E-2</v>
@@ -1372,55 +1372,55 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>5.6906469764561998E-2</v>
+        <v>5.6970450919936216E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>6.5185196591121417E-2</v>
+        <v>6.5112473658781936E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>2.3165585628589579E-2</v>
+        <v>2.310034690776374E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>1.3752464786720028E-2</v>
+        <v>1.3837435059918248E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>1.2266228391775175E-2</v>
+        <v>1.2261875987390584E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>1.4236914648912817E-2</v>
+        <v>1.4240300875226508E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>1.3661210961463287E-2</v>
+        <v>1.3663024707607958E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>1.3264749230430454E-2</v>
+        <v>1.3265735167543416E-2</v>
       </c>
       <c r="K17" s="2">
-        <v>1.2949524144444129E-2</v>
+        <v>1.2950064914634579E-2</v>
       </c>
       <c r="L17" s="2">
-        <v>1.2675745878929327E-2</v>
+        <v>1.2676037925737576E-2</v>
       </c>
       <c r="M17" s="2">
-        <v>1.2425943710174215E-2</v>
+        <v>1.242608932171972E-2</v>
       </c>
       <c r="N17" s="2">
-        <v>1.2191798157177261E-2</v>
+        <v>1.2191852143447307E-2</v>
       </c>
       <c r="O17" s="2">
-        <v>1.1968994431217916E-2</v>
+        <v>1.1968987460698233E-2</v>
       </c>
       <c r="P17" s="2">
-        <v>1.1755086085269735E-2</v>
+        <v>1.1755036310576027E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.1548557598985543E-2</v>
+        <v>1.15484764757773E-2</v>
       </c>
       <c r="R17" s="2">
         <v>1.1548557598985543E-2</v>
@@ -1428,55 +1428,55 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>8.1721393762581765E-2</v>
+        <v>8.1801948927135354E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>7.9353736043588349E-2</v>
+        <v>7.9274187427882753E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>2.6528143570009221E-2</v>
+        <v>2.6455106221604283E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>1.4647150457528039E-2</v>
+        <v>1.4735362539663519E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>1.2344564097526989E-2</v>
+        <v>1.2340668402273054E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>1.3891516430225986E-2</v>
+        <v>1.3894881808168287E-2</v>
       </c>
       <c r="I18" s="2">
-        <v>1.3174119001009997E-2</v>
+        <v>1.3175820710310232E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>1.272646428547305E-2</v>
+        <v>1.2727311012152555E-2</v>
       </c>
       <c r="K18" s="2">
-        <v>1.2397060465776644E-2</v>
+        <v>1.2397458873035724E-2</v>
       </c>
       <c r="L18" s="2">
-        <v>1.2123589678051666E-2</v>
+        <v>1.2123744772444746E-2</v>
       </c>
       <c r="M18" s="2">
-        <v>1.1879227029744607E-2</v>
+        <v>1.1879243625819907E-2</v>
       </c>
       <c r="N18" s="2">
-        <v>1.1651894991761435E-2</v>
+        <v>1.1651828119318225E-2</v>
       </c>
       <c r="O18" s="2">
-        <v>1.1435876882489392E-2</v>
+        <v>1.1435756616844692E-2</v>
       </c>
       <c r="P18" s="2">
-        <v>1.1228293703491691E-2</v>
+        <v>1.1228137383433834E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.1027575976022764E-2</v>
+        <v>1.102739424786503E-2</v>
       </c>
       <c r="R18" s="2">
         <v>1.1027575976022764E-2</v>
@@ -1484,55 +1484,55 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>0.11866956703907296</v>
+        <v>0.11877355867143329</v>
       </c>
       <c r="D19" s="2">
-        <v>0.10227724968676755</v>
+        <v>0.10217982501259673</v>
       </c>
       <c r="E19" s="2">
-        <v>3.240811351765778E-2</v>
+        <v>3.2324921942398346E-2</v>
       </c>
       <c r="F19" s="2">
-        <v>1.6697511077459756E-2</v>
+        <v>1.6795088914516778E-2</v>
       </c>
       <c r="G19" s="2">
-        <v>1.3133876863975559E-2</v>
+        <v>1.3130256160046349E-2</v>
       </c>
       <c r="H19" s="2">
-        <v>1.4098948529239291E-2</v>
+        <v>1.4102515509233408E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>1.3047239078158922E-2</v>
+        <v>1.3048950838474436E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>1.2419779998331226E-2</v>
+        <v>1.2420565398776113E-2</v>
       </c>
       <c r="K19" s="2">
-        <v>1.1982149975815034E-2</v>
+        <v>1.1982462692253672E-2</v>
       </c>
       <c r="L19" s="2">
-        <v>1.1636172832900383E-2</v>
+        <v>1.1636235994420719E-2</v>
       </c>
       <c r="M19" s="2">
-        <v>1.1338917785930838E-2</v>
+        <v>1.1338842965429124E-2</v>
       </c>
       <c r="N19" s="2">
-        <v>1.1070695365444028E-2</v>
+        <v>1.1070539901534707E-2</v>
       </c>
       <c r="O19" s="2">
-        <v>1.0821939343575077E-2</v>
+        <v>1.0821733898495193E-2</v>
       </c>
       <c r="P19" s="2">
-        <v>1.0587651123103134E-2</v>
+        <v>1.0587412977698104E-2</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.0364976375154435E-2</v>
+        <v>1.0364715897819995E-2</v>
       </c>
       <c r="R19" s="2">
         <v>1.0364976375154435E-2</v>
@@ -1540,55 +1540,55 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>0.22241453482812054</v>
+        <v>0.22256839612150375</v>
       </c>
       <c r="D20" s="2">
-        <v>0.15380476575365956</v>
+        <v>0.15367697125481078</v>
       </c>
       <c r="E20" s="2">
-        <v>4.4009800235676223E-2</v>
+        <v>4.3914389384520282E-2</v>
       </c>
       <c r="F20" s="2">
-        <v>1.9209882890725654E-2</v>
+        <v>1.9311531154809287E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>1.2336193771720939E-2</v>
+        <v>1.2334552988222797E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>1.1333752198721216E-2</v>
+        <v>1.1337053028252985E-2</v>
       </c>
       <c r="I20" s="2">
-        <v>9.7722338891901503E-3</v>
+        <v>9.7735654995625611E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>9.0194174300359635E-3</v>
+        <v>9.0198256020589847E-3</v>
       </c>
       <c r="K20" s="2">
-        <v>8.6093932649020481E-3</v>
+        <v>8.6093573536222545E-3</v>
       </c>
       <c r="L20" s="2">
-        <v>8.3488628977264525E-3</v>
+        <v>8.3486066452756798E-3</v>
       </c>
       <c r="M20" s="2">
-        <v>8.155832005544917E-3</v>
+        <v>8.1554622496765265E-3</v>
       </c>
       <c r="N20" s="2">
-        <v>7.9947479610114058E-3</v>
+        <v>7.9943172500955787E-3</v>
       </c>
       <c r="O20" s="2">
-        <v>7.8498484229020567E-3</v>
+        <v>7.8493836360026166E-3</v>
       </c>
       <c r="P20" s="2">
-        <v>7.7139749216690373E-3</v>
+        <v>7.7134905258658404E-3</v>
       </c>
       <c r="Q20" s="2">
-        <v>7.5837816309106236E-3</v>
+        <v>7.583285913230247E-3</v>
       </c>
       <c r="R20" s="2">
         <v>7.5837816309106236E-3</v>
@@ -1596,55 +1596,55 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>0.65488968109665269</v>
+        <v>0.6550175573872592</v>
       </c>
       <c r="D21" s="2">
-        <v>0.10447274990232043</v>
+        <v>0.10435970993010966</v>
       </c>
       <c r="E21" s="2">
-        <v>2.4023710267857695E-2</v>
+        <v>2.3972421045050773E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>9.9245915283655787E-3</v>
+        <v>9.9774968557477094E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>6.209810781323627E-3</v>
+        <v>6.2086639031144579E-3</v>
       </c>
       <c r="H21" s="2">
-        <v>5.5980947600011762E-3</v>
+        <v>5.5994421959725703E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>4.7482843617298268E-3</v>
+        <v>4.7486786110163383E-3</v>
       </c>
       <c r="J21" s="2">
-        <v>4.320312433222645E-3</v>
+        <v>4.3202761968236577E-3</v>
       </c>
       <c r="K21" s="2">
-        <v>4.0700372540484475E-3</v>
+        <v>4.0698045045563062E-3</v>
       </c>
       <c r="L21" s="2">
-        <v>3.89813696113554E-3</v>
+        <v>3.8978149044881839E-3</v>
       </c>
       <c r="M21" s="2">
-        <v>3.7630043603868401E-3</v>
+        <v>3.7626432097205452E-3</v>
       </c>
       <c r="N21" s="2">
-        <v>3.6467018120021513E-3</v>
+        <v>3.646325649312243E-3</v>
       </c>
       <c r="O21" s="2">
-        <v>3.5412437337321748E-3</v>
+        <v>3.5408644214595109E-3</v>
       </c>
       <c r="P21" s="2">
-        <v>3.442927061224144E-3</v>
+        <v>3.4425506172888307E-3</v>
       </c>
       <c r="Q21" s="2">
-        <v>3.3499346003014355E-3</v>
+        <v>3.3495641683174036E-3</v>
       </c>
       <c r="R21" s="2">
         <v>3.3499346003014355E-3</v>
@@ -1652,55 +1652,55 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2">
-        <v>3.5567044808340212E-5</v>
+        <v>3.5396740794993793E-5</v>
       </c>
       <c r="D22" s="2">
-        <v>2.4999348090876697E-4</v>
+        <v>2.486364742249913E-4</v>
       </c>
       <c r="E22" s="2">
-        <v>5.7676966360169159E-4</v>
+        <v>5.8078189974952222E-4</v>
       </c>
       <c r="F22" s="2">
-        <v>1.7520378966903911E-3</v>
+        <v>1.7052466137793541E-3</v>
       </c>
       <c r="G22" s="2">
-        <v>3.4750871762051962E-3</v>
+        <v>3.4221369254902028E-3</v>
       </c>
       <c r="H22" s="2">
-        <v>4.3851314737986995E-3</v>
+        <v>4.3573345874240183E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>5.5968531986642913E-3</v>
+        <v>5.5720384064499541E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>6.734588543719929E-3</v>
+        <v>6.7126269101703369E-3</v>
       </c>
       <c r="K22" s="2">
-        <v>7.7638207974926633E-3</v>
+        <v>7.7446541607048532E-3</v>
       </c>
       <c r="L22" s="2">
-        <v>8.668377729987832E-3</v>
+        <v>8.6519202393852256E-3</v>
       </c>
       <c r="M22" s="2">
-        <v>9.4447058214948091E-3</v>
+        <v>9.4308148810471788E-3</v>
       </c>
       <c r="N22" s="2">
-        <v>1.0097211272908385E-2</v>
+        <v>1.0085693949845846E-2</v>
       </c>
       <c r="O22" s="2">
-        <v>1.0634867489420465E-2</v>
+        <v>1.0625498968635412E-2</v>
       </c>
       <c r="P22" s="2">
-        <v>1.106889472613135E-2</v>
+        <v>1.1061437193139409E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.1411250487519587E-2</v>
+        <v>1.1405468055039605E-2</v>
       </c>
       <c r="R22" s="2">
         <v>1.1411250487519587E-2</v>
@@ -1708,55 +1708,55 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>8.2609026246856679E-5</v>
+        <v>8.2242598875852395E-5</v>
       </c>
       <c r="D23" s="2">
-        <v>4.8068778896880732E-4</v>
+        <v>4.7825841495093853E-4</v>
       </c>
       <c r="E23" s="2">
-        <v>9.8260117448514556E-4</v>
+        <v>9.8941781999181038E-4</v>
       </c>
       <c r="F23" s="2">
-        <v>2.6991876554780395E-3</v>
+        <v>2.6294710698921224E-3</v>
       </c>
       <c r="G23" s="2">
-        <v>4.9261934699086048E-3</v>
+        <v>4.857506403522247E-3</v>
       </c>
       <c r="H23" s="2">
-        <v>5.8556880415149525E-3</v>
+        <v>5.8245669739494729E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.151558729387315E-3</v>
+        <v>7.1254421691175334E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>8.3066381862582257E-3</v>
+        <v>8.2846941983307117E-3</v>
       </c>
       <c r="K23" s="2">
-        <v>9.303679649263057E-3</v>
+        <v>9.2853891094490035E-3</v>
       </c>
       <c r="L23" s="2">
-        <v>1.0142010817115098E-2</v>
+        <v>1.0126973646303297E-2</v>
       </c>
       <c r="M23" s="2">
-        <v>1.083065296553427E-2</v>
+        <v>1.081850828771133E-2</v>
       </c>
       <c r="N23" s="2">
-        <v>1.1383558483480983E-2</v>
+        <v>1.1373961465265814E-2</v>
       </c>
       <c r="O23" s="2">
-        <v>1.1816589706792158E-2</v>
+        <v>1.1809210956214695E-2</v>
       </c>
       <c r="P23" s="2">
-        <v>1.214571791347393E-2</v>
+        <v>1.2140249108057844E-2</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.2386023019561026E-2</v>
+        <v>1.2382182225049153E-2</v>
       </c>
       <c r="R23" s="2">
         <v>1.2386023019561026E-2</v>
@@ -1764,55 +1764,55 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>1.6483187299834803E-4</v>
+        <v>1.6413991298282692E-4</v>
       </c>
       <c r="D24" s="2">
-        <v>8.2740134756991064E-4</v>
+        <v>8.234165925335629E-4</v>
       </c>
       <c r="E24" s="2">
-        <v>1.5113428500427347E-3</v>
+        <v>1.5218225346162154E-3</v>
       </c>
       <c r="F24" s="2">
-        <v>3.7875768036433615E-3</v>
+        <v>3.6918687913021198E-3</v>
       </c>
       <c r="G24" s="2">
-        <v>6.4046573823486053E-3</v>
+        <v>6.3211033672343391E-3</v>
       </c>
       <c r="H24" s="2">
-        <v>7.1949771282462729E-3</v>
+        <v>7.1620319092080354E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>8.4262566850005754E-3</v>
+        <v>8.4002823674220514E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>9.4670208822996756E-3</v>
+        <v>9.4463109972717247E-3</v>
       </c>
       <c r="K24" s="2">
-        <v>1.0325012965878932E-2</v>
+        <v>1.0308501675699055E-2</v>
       </c>
       <c r="L24" s="2">
-        <v>1.1016611972132422E-2</v>
+        <v>1.1003569593631095E-2</v>
       </c>
       <c r="M24" s="2">
-        <v>1.1561755350742752E-2</v>
+        <v>1.1551629077898633E-2</v>
       </c>
       <c r="N24" s="2">
-        <v>1.1980813965076206E-2</v>
+        <v>1.1973152764772177E-2</v>
       </c>
       <c r="O24" s="2">
-        <v>1.22929399885554E-2</v>
+        <v>1.2287360954543233E-2</v>
       </c>
       <c r="P24" s="2">
-        <v>1.2515327611460611E-2</v>
+        <v>1.2511500718031296E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.2662989253704605E-2</v>
+        <v>1.2660629521397128E-2</v>
       </c>
       <c r="R24" s="2">
         <v>1.2662989253704605E-2</v>
@@ -1820,55 +1820,55 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>3.4536480074588363E-4</v>
+        <v>3.4403080128836817E-4</v>
       </c>
       <c r="D25" s="2">
-        <v>1.4394918334700887E-3</v>
+        <v>1.432992282403276E-3</v>
       </c>
       <c r="E25" s="2">
-        <v>2.3393301598439143E-3</v>
+        <v>2.3556540910523545E-3</v>
       </c>
       <c r="F25" s="2">
-        <v>5.3417015864231799E-3</v>
+        <v>5.2095875752163354E-3</v>
       </c>
       <c r="G25" s="2">
-        <v>8.3516307976742657E-3</v>
+        <v>8.2505192323236581E-3</v>
       </c>
       <c r="H25" s="2">
-        <v>8.8511243367456367E-3</v>
+        <v>8.8175280398683636E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>9.9282495475007827E-3</v>
+        <v>9.9037716982605922E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>1.0779683184848078E-2</v>
+        <v>1.0761511009159976E-2</v>
       </c>
       <c r="K25" s="2">
-        <v>1.1440248900625428E-2</v>
+        <v>1.1426671768360784E-2</v>
       </c>
       <c r="L25" s="2">
-        <v>1.194179861638648E-2</v>
+        <v>1.1931732310492485E-2</v>
       </c>
       <c r="M25" s="2">
-        <v>1.2312420130158803E-2</v>
+        <v>1.2305128742616111E-2</v>
       </c>
       <c r="N25" s="2">
-        <v>1.2576064341004882E-2</v>
+        <v>1.2571012038546561E-2</v>
       </c>
       <c r="O25" s="2">
-        <v>1.2752708046379523E-2</v>
+        <v>1.2749482233139084E-2</v>
       </c>
       <c r="P25" s="2">
-        <v>1.2858799089189344E-2</v>
+        <v>1.2857070005436393E-2</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.2907787156096048E-2</v>
+        <v>1.2907285477092332E-2</v>
       </c>
       <c r="R25" s="2">
         <v>1.2907787156096048E-2</v>
@@ -1876,55 +1876,55 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
-        <v>6.2950609506642343E-4</v>
+        <v>6.2730658020375939E-4</v>
       </c>
       <c r="D26" s="2">
-        <v>2.1802707782665283E-3</v>
+        <v>2.1710684311612343E-3</v>
       </c>
       <c r="E26" s="2">
-        <v>3.2495461236471254E-3</v>
+        <v>3.2724684921229801E-3</v>
       </c>
       <c r="F26" s="2">
-        <v>6.9297531445004267E-3</v>
+        <v>6.7610512957278924E-3</v>
       </c>
       <c r="G26" s="2">
-        <v>1.0210196702924633E-2</v>
+        <v>1.0094316532298466E-2</v>
       </c>
       <c r="H26" s="2">
-        <v>1.0352563950794627E-2</v>
+        <v>1.031978794738766E-2</v>
       </c>
       <c r="I26" s="2">
-        <v>1.123965694486022E-2</v>
+        <v>1.1217555241826384E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>1.1890576244267932E-2</v>
+        <v>1.1875425596491568E-2</v>
       </c>
       <c r="K26" s="2">
-        <v>1.2359500448788526E-2</v>
+        <v>1.2349078599426185E-2</v>
       </c>
       <c r="L26" s="2">
-        <v>1.268715818243212E-2</v>
+        <v>1.2680118029406596E-2</v>
       </c>
       <c r="M26" s="2">
-        <v>1.2904797482831937E-2</v>
+        <v>1.2900283088788947E-2</v>
       </c>
       <c r="N26" s="2">
-        <v>1.3036497975385213E-2</v>
+        <v>1.3033931633013186E-2</v>
       </c>
       <c r="O26" s="2">
-        <v>1.310085915934513E-2</v>
+        <v>1.3099827252679495E-2</v>
       </c>
       <c r="P26" s="2">
-        <v>1.3112301687242553E-2</v>
+        <v>1.311249340451863E-2</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.308206553109475E-2</v>
+        <v>1.3083239005937036E-2</v>
       </c>
       <c r="R26" s="2">
         <v>1.308206553109475E-2</v>
@@ -1932,55 +1932,55 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
-        <v>1.1393338900653788E-3</v>
+        <v>1.1357673054185427E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>3.2603817540858265E-3</v>
+        <v>3.2475322646505793E-3</v>
       </c>
       <c r="E27" s="2">
-        <v>4.4623708748335322E-3</v>
+        <v>4.4942559088057823E-3</v>
       </c>
       <c r="F27" s="2">
-        <v>8.896245032279983E-3</v>
+        <v>8.6825912729358076E-3</v>
       </c>
       <c r="G27" s="2">
-        <v>1.2355795708704542E-2</v>
+        <v>1.2224456801252406E-2</v>
       </c>
       <c r="H27" s="2">
-        <v>1.1984153051858766E-2</v>
+        <v>1.195359503877636E-2</v>
       </c>
       <c r="I27" s="2">
-        <v>1.2592686247040895E-2</v>
+        <v>1.2574229184277608E-2</v>
       </c>
       <c r="J27" s="2">
-        <v>1.2981271070007142E-2</v>
+        <v>1.2970211870273193E-2</v>
       </c>
       <c r="K27" s="2">
-        <v>1.3218535926334032E-2</v>
+        <v>1.321212516640996E-2</v>
       </c>
       <c r="L27" s="2">
-        <v>1.334840615172796E-2</v>
+        <v>1.3345055112206045E-2</v>
       </c>
       <c r="M27" s="2">
-        <v>1.3400460277926298E-2</v>
+        <v>1.3399227847360536E-2</v>
       </c>
       <c r="N27" s="2">
-        <v>1.3395226831001977E-2</v>
+        <v>1.3395528693751395E-2</v>
       </c>
       <c r="O27" s="2">
-        <v>1.334727144413894E-2</v>
+        <v>1.3348723260464428E-2</v>
       </c>
       <c r="P27" s="2">
-        <v>1.326712978349911E-2</v>
+        <v>1.3269463742650879E-2</v>
       </c>
       <c r="Q27" s="2">
-        <v>1.3162561454186305E-2</v>
+        <v>1.3165581433637448E-2</v>
       </c>
       <c r="R27" s="2">
         <v>1.3162561454186305E-2</v>
@@ -1988,55 +1988,55 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
-        <v>2.5288338074281021E-3</v>
+        <v>2.5217496476186837E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>5.1567047666061811E-3</v>
+        <v>5.1378861593691103E-3</v>
       </c>
       <c r="E28" s="2">
-        <v>6.0695522699758669E-3</v>
+        <v>6.1138484879080949E-3</v>
       </c>
       <c r="F28" s="2">
-        <v>1.1081442528003181E-2</v>
+        <v>1.0819297554937537E-2</v>
       </c>
       <c r="G28" s="2">
-        <v>1.4417469585231242E-2</v>
+        <v>1.4275360664418353E-2</v>
       </c>
       <c r="H28" s="2">
-        <v>1.3406134900662454E-2</v>
+        <v>1.3380012831580069E-2</v>
       </c>
       <c r="I28" s="2">
-        <v>1.3700758603907532E-2</v>
+        <v>1.3686901865636505E-2</v>
       </c>
       <c r="J28" s="2">
-        <v>1.3835415803169479E-2</v>
+        <v>1.3828690250682986E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>1.3868848834567465E-2</v>
+        <v>1.3866323682392972E-2</v>
       </c>
       <c r="L28" s="2">
-        <v>1.3835394174903445E-2</v>
+        <v>1.3835437201511336E-2</v>
       </c>
       <c r="M28" s="2">
-        <v>1.375639789297272E-2</v>
+        <v>1.3758090452428644E-2</v>
       </c>
       <c r="N28" s="2">
-        <v>1.3645710325112836E-2</v>
+        <v>1.3648517122534225E-2</v>
       </c>
       <c r="O28" s="2">
-        <v>1.3512624331885941E-2</v>
+        <v>1.3516216991697512E-2</v>
       </c>
       <c r="P28" s="2">
-        <v>1.3363557273499901E-2</v>
+        <v>1.3367721984433804E-2</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.3203056817049714E-2</v>
+        <v>1.3207645973337345E-2</v>
       </c>
       <c r="R28" s="2">
         <v>1.3203056817049714E-2</v>
@@ -2044,55 +2044,55 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2">
-        <v>4.1013424292154679E-3</v>
+        <v>4.0906705258848732E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>6.6782059434558139E-3</v>
+        <v>6.6549040938358658E-3</v>
       </c>
       <c r="E29" s="2">
-        <v>7.1784863202536608E-3</v>
+        <v>7.2320151981198491E-3</v>
       </c>
       <c r="F29" s="2">
-        <v>1.2484281519260716E-2</v>
+        <v>1.2190588623974244E-2</v>
       </c>
       <c r="G29" s="2">
-        <v>1.5659454148160064E-2</v>
+        <v>1.5511304366671346E-2</v>
       </c>
       <c r="H29" s="2">
-        <v>1.4216757059779679E-2</v>
+        <v>1.4193715073081871E-2</v>
       </c>
       <c r="I29" s="2">
-        <v>1.4301977335213371E-2</v>
+        <v>1.4291208771458626E-2</v>
       </c>
       <c r="J29" s="2">
-        <v>1.4275087719720848E-2</v>
+        <v>1.4271232183799136E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>1.4183841673766639E-2</v>
+        <v>1.4183866142024113E-2</v>
       </c>
       <c r="L29" s="2">
-        <v>1.4053812160746323E-2</v>
+        <v>1.4056064689846338E-2</v>
       </c>
       <c r="M29" s="2">
-        <v>1.3899615316259833E-2</v>
+        <v>1.3903198624477501E-2</v>
       </c>
       <c r="N29" s="2">
-        <v>1.3730042928230097E-2</v>
+        <v>1.3734459018418856E-2</v>
       </c>
       <c r="O29" s="2">
-        <v>1.355061659033046E-2</v>
+        <v>1.3555577551141982E-2</v>
       </c>
       <c r="P29" s="2">
-        <v>1.3364939473889653E-2</v>
+        <v>1.3370269464245936E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.3175445229391413E-2</v>
+        <v>1.3181030066402083E-2</v>
       </c>
       <c r="R29" s="2">
         <v>1.3175445229391413E-2</v>
@@ -2100,55 +2100,55 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
-        <v>6.6398855654354787E-3</v>
+        <v>6.6239253911023191E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>8.4606398383022339E-3</v>
+        <v>8.4322948542461945E-3</v>
       </c>
       <c r="E30" s="2">
-        <v>8.3218012841417624E-3</v>
+        <v>8.385806737320544E-3</v>
       </c>
       <c r="F30" s="2">
-        <v>1.3865037805118061E-2</v>
+        <v>1.3539413463670175E-2</v>
       </c>
       <c r="G30" s="2">
-        <v>1.6826596780005976E-2</v>
+        <v>1.6672762463727408E-2</v>
       </c>
       <c r="H30" s="2">
-        <v>1.4943241839917831E-2</v>
+        <v>1.4923341869657351E-2</v>
       </c>
       <c r="I30" s="2">
-        <v>1.4815321174587101E-2</v>
+        <v>1.480772934131333E-2</v>
       </c>
       <c r="J30" s="2">
-        <v>1.4629012028712684E-2</v>
+        <v>1.462812665394036E-2</v>
       </c>
       <c r="K30" s="2">
-        <v>1.4418180700196919E-2</v>
+        <v>1.4420848299813247E-2</v>
       </c>
       <c r="L30" s="2">
-        <v>1.4197935193255193E-2</v>
+        <v>1.4202476377711857E-2</v>
       </c>
       <c r="M30" s="2">
-        <v>1.397521091548351E-2</v>
+        <v>1.3980748829249701E-2</v>
       </c>
       <c r="N30" s="2">
-        <v>1.3753241369476343E-2</v>
+        <v>1.375931727110238E-2</v>
       </c>
       <c r="O30" s="2">
-        <v>1.3533536663197641E-2</v>
+        <v>1.3539905829598133E-2</v>
       </c>
       <c r="P30" s="2">
-        <v>1.3316789487001239E-2</v>
+        <v>1.3323316620236801E-2</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.310330008036896E-2</v>
+        <v>1.310990654115566E-2</v>
       </c>
       <c r="R30" s="2">
         <v>1.310330008036896E-2</v>
@@ -2156,55 +2156,55 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
-        <v>6.6778675935213853E-3</v>
+        <v>6.6617935394036234E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>8.605622253742477E-3</v>
+        <v>8.5767131722677744E-3</v>
       </c>
       <c r="E31" s="2">
-        <v>8.4292379993402538E-3</v>
+        <v>8.4938706860061605E-3</v>
       </c>
       <c r="F31" s="2">
-        <v>1.3966320537098609E-2</v>
+        <v>1.3639005174919873E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>1.6901664017340307E-2</v>
+        <v>1.6747209652696729E-2</v>
       </c>
       <c r="H31" s="2">
-        <v>1.4984474117534334E-2</v>
+        <v>1.4964569226193629E-2</v>
       </c>
       <c r="I31" s="2">
-        <v>1.4839422346289294E-2</v>
+        <v>1.4831898960295973E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>1.4642689092786062E-2</v>
+        <v>1.4641894720754424E-2</v>
       </c>
       <c r="K31" s="2">
-        <v>1.4425399709785876E-2</v>
+        <v>1.4428160265158424E-2</v>
       </c>
       <c r="L31" s="2">
-        <v>1.4201001687638453E-2</v>
+        <v>1.4205629989780753E-2</v>
       </c>
       <c r="M31" s="2">
-        <v>1.397548659561559E-2</v>
+        <v>1.3981103440696833E-2</v>
       </c>
       <c r="N31" s="2">
-        <v>1.375156009595873E-2</v>
+        <v>1.3757706635189644E-2</v>
       </c>
       <c r="O31" s="2">
-        <v>1.3530433980755215E-2</v>
+        <v>1.3536866225519667E-2</v>
       </c>
       <c r="P31" s="2">
-        <v>1.3312627364435951E-2</v>
+        <v>1.3319210991115332E-2</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.3098335112911893E-2</v>
+        <v>1.310499244915036E-2</v>
       </c>
       <c r="R31" s="2">
         <v>1.3098335112911893E-2</v>
@@ -2212,55 +2212,55 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>6.7150686704277162E-3</v>
+        <v>6.6988829533764106E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>8.7487485930042037E-3</v>
+        <v>8.7192813185111313E-3</v>
       </c>
       <c r="E32" s="2">
-        <v>8.5352054015555012E-3</v>
+        <v>8.6004543798518344E-3</v>
       </c>
       <c r="F32" s="2">
-        <v>1.4065461293794797E-2</v>
+        <v>1.3736499876363441E-2</v>
       </c>
       <c r="G32" s="2">
-        <v>1.6974689126911684E-2</v>
+        <v>1.6819627415685153E-2</v>
       </c>
       <c r="H32" s="2">
-        <v>1.5024352023498683E-2</v>
+        <v>1.5004440343349738E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>1.4862547470927346E-2</v>
+        <v>1.4855090195977912E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>1.4655671405957089E-2</v>
+        <v>1.4654965783977314E-2</v>
       </c>
       <c r="K32" s="2">
-        <v>1.4432126879387443E-2</v>
+        <v>1.4434978378731794E-2</v>
       </c>
       <c r="L32" s="2">
-        <v>1.420372323604281E-2</v>
+        <v>1.4208436903503378E-2</v>
       </c>
       <c r="M32" s="2">
-        <v>1.3975525619426353E-2</v>
+        <v>1.3981219877393709E-2</v>
       </c>
       <c r="N32" s="2">
-        <v>1.3749723793065955E-2</v>
+        <v>1.3755939649641204E-2</v>
       </c>
       <c r="O32" s="2">
-        <v>1.3527239101153785E-2</v>
+        <v>1.3533733267620642E-2</v>
       </c>
       <c r="P32" s="2">
-        <v>1.3308422259624701E-2</v>
+        <v>1.331506135672606E-2</v>
       </c>
       <c r="Q32" s="2">
-        <v>1.3093366232310248E-2</v>
+        <v>1.3100073529760165E-2</v>
       </c>
       <c r="R32" s="2">
         <v>1.3093366232310248E-2</v>
@@ -2268,55 +2268,55 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
-        <v>6.7517581797022393E-3</v>
+        <v>6.7354622150977194E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>8.8909977969187821E-3</v>
+        <v>8.8609744720201493E-3</v>
       </c>
       <c r="E33" s="2">
-        <v>8.640433535693208E-3</v>
+        <v>8.7062922131849515E-3</v>
       </c>
       <c r="F33" s="2">
-        <v>1.4163177851779134E-2</v>
+        <v>1.3832602977271135E-2</v>
       </c>
       <c r="G33" s="2">
-        <v>1.7046224816339502E-2</v>
+        <v>1.6890564026197017E-2</v>
       </c>
       <c r="H33" s="2">
-        <v>1.5063190891582067E-2</v>
+        <v>1.5043270586946071E-2</v>
       </c>
       <c r="I33" s="2">
-        <v>1.4884890386653039E-2</v>
+        <v>1.4877497404879182E-2</v>
       </c>
       <c r="J33" s="2">
-        <v>1.4668076409632465E-2</v>
+        <v>1.4667457944037333E-2</v>
       </c>
       <c r="K33" s="2">
-        <v>1.4438430845706477E-2</v>
+        <v>1.4441371939381407E-2</v>
       </c>
       <c r="L33" s="2">
-        <v>1.4206136206419591E-2</v>
+        <v>1.421093410186728E-2</v>
       </c>
       <c r="M33" s="2">
-        <v>1.3975342129557323E-2</v>
+        <v>1.3981112836095988E-2</v>
       </c>
       <c r="N33" s="2">
-        <v>1.3747730687008302E-2</v>
+        <v>1.3754015034664165E-2</v>
       </c>
       <c r="O33" s="2">
-        <v>1.3523938477519834E-2</v>
+        <v>1.3530493848970898E-2</v>
       </c>
       <c r="P33" s="2">
-        <v>1.3304151705500325E-2</v>
+        <v>1.3310845643266398E-2</v>
       </c>
       <c r="Q33" s="2">
-        <v>1.3088364103520161E-2</v>
+        <v>1.3095120801635461E-2</v>
       </c>
       <c r="R33" s="2">
         <v>1.3088364103520161E-2</v>
@@ -2324,55 +2324,55 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2">
-        <v>9.88010752934332E-3</v>
+        <v>9.8589336776022871E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>1.1025621307654299E-2</v>
+        <v>1.0987966956783854E-2</v>
       </c>
       <c r="E34" s="2">
-        <v>9.720982535491661E-3</v>
+        <v>9.7931198883357291E-3</v>
       </c>
       <c r="F34" s="2">
-        <v>1.4990563822582277E-2</v>
+        <v>1.4646739359055432E-2</v>
       </c>
       <c r="G34" s="2">
-        <v>1.7524478941887568E-2</v>
+        <v>1.7366677081632254E-2</v>
       </c>
       <c r="H34" s="2">
-        <v>1.5261324082524473E-2</v>
+        <v>1.5242047925886161E-2</v>
       </c>
       <c r="I34" s="2">
-        <v>1.4953354186997439E-2</v>
+        <v>1.4946610364985641E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>1.4665100052218048E-2</v>
+        <v>1.466505982997667E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>1.4395312360996953E-2</v>
+        <v>1.4398756336278941E-2</v>
       </c>
       <c r="L34" s="2">
-        <v>1.413980830631811E-2</v>
+        <v>1.4145046873549512E-2</v>
       </c>
       <c r="M34" s="2">
-        <v>1.3895144779238183E-2</v>
+        <v>1.3901308530464321E-2</v>
       </c>
       <c r="N34" s="2">
-        <v>1.3658976884851451E-2</v>
+        <v>1.3665618634731069E-2</v>
       </c>
       <c r="O34" s="2">
-        <v>1.3429774526165165E-2</v>
+        <v>1.3436660638332203E-2</v>
       </c>
       <c r="P34" s="2">
-        <v>1.3206529207252902E-2</v>
+        <v>1.3213533719951796E-2</v>
       </c>
       <c r="Q34" s="2">
-        <v>1.2988553307270917E-2</v>
+        <v>1.2995605053756965E-2</v>
       </c>
       <c r="R34" s="2">
         <v>1.2988553307270917E-2</v>
@@ -2380,55 +2380,55 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2">
-        <v>1.4358210723756724E-2</v>
+        <v>1.4331248180339958E-2</v>
       </c>
       <c r="D35" s="2">
-        <v>1.3434268583415815E-2</v>
+        <v>1.3387035790543719E-2</v>
       </c>
       <c r="E35" s="2">
-        <v>1.0672555908585459E-2</v>
+        <v>1.0749451329688643E-2</v>
       </c>
       <c r="F35" s="2">
-        <v>1.5495326560956015E-2</v>
+        <v>1.5146067468689663E-2</v>
       </c>
       <c r="G35" s="2">
-        <v>1.7718652090184511E-2</v>
+        <v>1.7558179186630343E-2</v>
       </c>
       <c r="H35" s="2">
-        <v>1.5278186873202888E-2</v>
+        <v>1.5258190056838287E-2</v>
       </c>
       <c r="I35" s="2">
-        <v>1.4884508953018788E-2</v>
+        <v>1.4877623435047066E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>1.4557003889147081E-2</v>
+        <v>1.4557078174619952E-2</v>
       </c>
       <c r="K35" s="2">
-        <v>1.427043286065445E-2</v>
+        <v>1.4274106470880276E-2</v>
       </c>
       <c r="L35" s="2">
-        <v>1.4008774539844688E-2</v>
+        <v>1.4014293585954848E-2</v>
       </c>
       <c r="M35" s="2">
-        <v>1.3762867188516045E-2</v>
+        <v>1.3769332178533857E-2</v>
       </c>
       <c r="N35" s="2">
-        <v>1.3527651224882913E-2</v>
+        <v>1.3534600673801637E-2</v>
       </c>
       <c r="O35" s="2">
-        <v>1.3300330002682673E-2</v>
+        <v>1.3307523444618495E-2</v>
       </c>
       <c r="P35" s="2">
-        <v>1.3079316408726917E-2</v>
+        <v>1.3086624653458299E-2</v>
       </c>
       <c r="Q35" s="2">
-        <v>1.2863666370100908E-2</v>
+        <v>1.2871016782244483E-2</v>
       </c>
       <c r="R35" s="2">
         <v>1.2863666370100908E-2</v>
@@ -2436,55 +2436,55 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2">
-        <v>2.3105632499741943E-2</v>
+        <v>2.3068559202195322E-2</v>
       </c>
       <c r="D36" s="2">
-        <v>1.7591171101053446E-2</v>
+        <v>1.7528907080787279E-2</v>
       </c>
       <c r="E36" s="2">
-        <v>1.2292111312879389E-2</v>
+        <v>1.2377675010705851E-2</v>
       </c>
       <c r="F36" s="2">
-        <v>1.6472826279412607E-2</v>
+        <v>1.6110926591211647E-2</v>
       </c>
       <c r="G36" s="2">
-        <v>1.8215299840978597E-2</v>
+        <v>1.8051865487385549E-2</v>
       </c>
       <c r="H36" s="2">
-        <v>1.5444493474581827E-2</v>
+        <v>1.5425240942645057E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>1.4893480459915735E-2</v>
+        <v>1.4887667353991633E-2</v>
       </c>
       <c r="J36" s="2">
-        <v>1.4480863039714754E-2</v>
+        <v>1.4482000911706549E-2</v>
       </c>
       <c r="K36" s="2">
-        <v>1.4146227576295366E-2</v>
+        <v>1.4150864789140401E-2</v>
       </c>
       <c r="L36" s="2">
-        <v>1.385606699125835E-2</v>
+        <v>1.3862439037127181E-2</v>
       </c>
       <c r="M36" s="2">
-        <v>1.3592417286941098E-2</v>
+        <v>1.3599637647888602E-2</v>
       </c>
       <c r="N36" s="2">
-        <v>1.334569130287503E-2</v>
+        <v>1.3353315862231707E-2</v>
       </c>
       <c r="O36" s="2">
-        <v>1.3110689862370207E-2</v>
+        <v>1.3118493979598515E-2</v>
       </c>
       <c r="P36" s="2">
-        <v>1.2884497041858744E-2</v>
+        <v>1.2892364445261977E-2</v>
       </c>
       <c r="Q36" s="2">
-        <v>1.2665395486819988E-2</v>
+        <v>1.2673263661110304E-2</v>
       </c>
       <c r="R36" s="2">
         <v>1.2665395486819988E-2</v>
@@ -2492,55 +2492,55 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2">
-        <v>3.6805347151932115E-2</v>
+        <v>3.6754466722415675E-2</v>
       </c>
       <c r="D37" s="2">
-        <v>2.3101959967372725E-2</v>
+        <v>2.3021915662369701E-2</v>
       </c>
       <c r="E37" s="2">
-        <v>1.4160437126499789E-2</v>
+        <v>1.425520490792569E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>1.7339597811130716E-2</v>
+        <v>1.6969716228453741E-2</v>
       </c>
       <c r="G37" s="2">
-        <v>1.8449094787273631E-2</v>
+        <v>1.8285218291536499E-2</v>
       </c>
       <c r="H37" s="2">
-        <v>1.5372099745550313E-2</v>
+        <v>1.5353433207579212E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>1.4681118050267492E-2</v>
+        <v>1.4675993333424826E-2</v>
       </c>
       <c r="J37" s="2">
-        <v>1.4204571157221431E-2</v>
+        <v>1.4206370825547663E-2</v>
       </c>
       <c r="K37" s="2">
-        <v>1.3841347699393092E-2</v>
+        <v>1.384659781407384E-2</v>
       </c>
       <c r="L37" s="2">
-        <v>1.353934322679177E-2</v>
+        <v>1.3546283338316157E-2</v>
       </c>
       <c r="M37" s="2">
-        <v>1.3271931984136889E-2</v>
+        <v>1.3279684018985317E-2</v>
       </c>
       <c r="N37" s="2">
-        <v>1.3025425308958439E-2</v>
+        <v>1.3033552631197598E-2</v>
       </c>
       <c r="O37" s="2">
-        <v>1.2792649244657422E-2</v>
+        <v>1.2800932910411001E-2</v>
       </c>
       <c r="P37" s="2">
-        <v>1.2569718610821901E-2</v>
+        <v>1.2578046518808233E-2</v>
       </c>
       <c r="Q37" s="2">
-        <v>1.2354428731550333E-2</v>
+        <v>1.2362741412560755E-2</v>
       </c>
       <c r="R37" s="2">
         <v>1.2354428731550333E-2</v>
@@ -2548,55 +2548,55 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2">
-        <v>5.5027923755973533E-2</v>
+        <v>5.4960989484099325E-2</v>
       </c>
       <c r="D38" s="2">
-        <v>3.0008589711257617E-2</v>
+        <v>2.9908041997406817E-2</v>
       </c>
       <c r="E38" s="2">
-        <v>1.6389928902921642E-2</v>
+        <v>1.649458452707871E-2</v>
       </c>
       <c r="F38" s="2">
-        <v>1.828351766089429E-2</v>
+        <v>1.7906949602340252E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>1.8743019980811741E-2</v>
+        <v>1.8576423067514516E-2</v>
       </c>
       <c r="H38" s="2">
-        <v>1.5370912856828539E-2</v>
+        <v>1.5352048523292814E-2</v>
       </c>
       <c r="I38" s="2">
-        <v>1.4545434160754723E-2</v>
+        <v>1.4540928963421056E-2</v>
       </c>
       <c r="J38" s="2">
-        <v>1.4005866649182328E-2</v>
+        <v>1.4008612884118105E-2</v>
       </c>
       <c r="K38" s="2">
-        <v>1.361027188563056E-2</v>
+        <v>1.3616575712610992E-2</v>
       </c>
       <c r="L38" s="2">
-        <v>1.32893640951635E-2</v>
+        <v>1.3297365796352215E-2</v>
       </c>
       <c r="M38" s="2">
-        <v>1.3009258588272612E-2</v>
+        <v>1.3018036306688277E-2</v>
       </c>
       <c r="N38" s="2">
-        <v>1.2753200296094351E-2</v>
+        <v>1.2762299694611247E-2</v>
       </c>
       <c r="O38" s="2">
-        <v>1.2512718050829893E-2</v>
+        <v>1.2521914891066833E-2</v>
       </c>
       <c r="P38" s="2">
-        <v>1.2283368958719917E-2</v>
+        <v>1.2292551714439588E-2</v>
       </c>
       <c r="Q38" s="2">
-        <v>1.2062693868590912E-2</v>
+        <v>1.2071806314577728E-2</v>
       </c>
       <c r="R38" s="2">
         <v>1.2062693868590912E-2</v>
@@ -2604,55 +2604,55 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2">
-        <v>8.3157653366157325E-2</v>
+        <v>8.3066264422941669E-2</v>
       </c>
       <c r="D39" s="2">
-        <v>4.2845771702168418E-2</v>
+        <v>4.2715715091511244E-2</v>
       </c>
       <c r="E39" s="2">
-        <v>2.1500110169317129E-2</v>
+        <v>2.163050986150622E-2</v>
       </c>
       <c r="F39" s="2">
-        <v>2.1392826881597337E-2</v>
+        <v>2.0977320225722126E-2</v>
       </c>
       <c r="G39" s="2">
-        <v>2.0446927691893421E-2</v>
+        <v>2.0276431895239994E-2</v>
       </c>
       <c r="H39" s="2">
-        <v>1.6120270305632574E-2</v>
+        <v>1.6106839546024508E-2</v>
       </c>
       <c r="I39" s="2">
-        <v>1.4870270438804253E-2</v>
+        <v>1.4870844181145978E-2</v>
       </c>
       <c r="J39" s="2">
-        <v>1.4086536481329017E-2</v>
+        <v>1.4093687861902243E-2</v>
       </c>
       <c r="K39" s="2">
-        <v>1.3536106142248741E-2</v>
+        <v>1.3546147729152889E-2</v>
       </c>
       <c r="L39" s="2">
-        <v>1.3108230208376278E-2</v>
+        <v>1.311939766703905E-2</v>
       </c>
       <c r="M39" s="2">
-        <v>1.274923836030499E-2</v>
+        <v>1.2760714075256144E-2</v>
       </c>
       <c r="N39" s="2">
-        <v>1.2432336545051964E-2</v>
+        <v>1.2443756417767024E-2</v>
       </c>
       <c r="O39" s="2">
-        <v>1.2143565611207705E-2</v>
+        <v>1.2154778087838247E-2</v>
       </c>
       <c r="P39" s="2">
-        <v>1.1875226470569718E-2</v>
+        <v>1.1886177244098231E-2</v>
       </c>
       <c r="Q39" s="2">
-        <v>1.1622766356725822E-2</v>
+        <v>1.1633444089478638E-2</v>
       </c>
       <c r="R39" s="2">
         <v>1.1622766356725822E-2</v>
@@ -2660,55 +2660,55 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
-        <v>0.16668145681415311</v>
+        <v>0.16653119968704863</v>
       </c>
       <c r="D40" s="2">
-        <v>7.7656196204801048E-2</v>
+        <v>7.74641911216363E-2</v>
       </c>
       <c r="E40" s="2">
-        <v>3.2813354230832946E-2</v>
+        <v>3.2985565864394453E-2</v>
       </c>
       <c r="F40" s="2">
-        <v>2.4432559416796111E-2</v>
+        <v>2.4036248077054526E-2</v>
       </c>
       <c r="G40" s="2">
-        <v>1.9224126633548291E-2</v>
+        <v>1.9071892083459926E-2</v>
       </c>
       <c r="H40" s="2">
-        <v>1.3755633733136747E-2</v>
+        <v>1.3741703616649189E-2</v>
       </c>
       <c r="I40" s="2">
-        <v>1.2044711882184056E-2</v>
+        <v>1.2043403500835952E-2</v>
       </c>
       <c r="J40" s="2">
-        <v>1.1182344391393815E-2</v>
+        <v>1.1187306292059093E-2</v>
       </c>
       <c r="K40" s="2">
-        <v>1.0695000339117919E-2</v>
+        <v>1.0703026923097077E-2</v>
       </c>
       <c r="L40" s="2">
-        <v>1.0377255046039327E-2</v>
+        <v>1.0386752363312357E-2</v>
       </c>
       <c r="M40" s="2">
-        <v>1.0138524449896699E-2</v>
+        <v>1.01487031793579E-2</v>
       </c>
       <c r="N40" s="2">
-        <v>9.9381977038984978E-3</v>
+        <v>9.9486651925340813E-3</v>
       </c>
       <c r="O40" s="2">
-        <v>9.7577482870863479E-3</v>
+        <v>9.7683066435046428E-3</v>
       </c>
       <c r="P40" s="2">
-        <v>9.5885551869831602E-3</v>
+        <v>9.5991024285486878E-3</v>
       </c>
       <c r="Q40" s="2">
-        <v>9.4265050989740789E-3</v>
+        <v>9.4369869501102991E-3</v>
       </c>
       <c r="R40" s="2">
         <v>9.4265050989740789E-3</v>
@@ -2716,55 +2716,55 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C41" s="2">
-        <v>0.60379349044223296</v>
+        <v>0.60364050541728731</v>
       </c>
       <c r="D41" s="2">
-        <v>6.8637763630991111E-2</v>
+        <v>6.8526261570656957E-2</v>
       </c>
       <c r="E41" s="2">
-        <v>2.4308997933456356E-2</v>
+        <v>2.4453215695703648E-2</v>
       </c>
       <c r="F41" s="2">
-        <v>1.6753372640957703E-2</v>
+        <v>1.6498474971567732E-2</v>
       </c>
       <c r="G41" s="2">
-        <v>1.2515369183042774E-2</v>
+        <v>1.2435836717529642E-2</v>
       </c>
       <c r="H41" s="2">
-        <v>8.6361057437823012E-3</v>
+        <v>8.641018446675813E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>7.3557094033069436E-3</v>
+        <v>7.3661232745054709E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>6.6668026072647275E-3</v>
+        <v>6.6795139237760589E-3</v>
       </c>
       <c r="K41" s="2">
-        <v>6.2377279662745979E-3</v>
+        <v>6.2511585344950877E-3</v>
       </c>
       <c r="L41" s="2">
-        <v>5.929259464235415E-3</v>
+        <v>5.9426612638718958E-3</v>
       </c>
       <c r="M41" s="2">
-        <v>5.6811434057064351E-3</v>
+        <v>5.6941797181529639E-3</v>
       </c>
       <c r="N41" s="2">
-        <v>5.466470662068873E-3</v>
+        <v>5.4790037936201181E-3</v>
       </c>
       <c r="O41" s="2">
-        <v>5.2727465237789872E-3</v>
+        <v>5.2847330069735847E-3</v>
       </c>
       <c r="P41" s="2">
-        <v>5.0938497667747766E-3</v>
+        <v>5.1052895348585202E-3</v>
       </c>
       <c r="Q41" s="2">
-        <v>4.9265483982124268E-3</v>
+        <v>4.9374604554486218E-3</v>
       </c>
       <c r="R41" s="2">
         <v>4.9265483982124268E-3</v>
@@ -2772,55 +2772,55 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2">
-        <v>3.3562856896125743E-4</v>
+        <v>3.3553321234668272E-4</v>
       </c>
       <c r="D42" s="2">
-        <v>1.116130430639757E-3</v>
+        <v>1.0984761894081054E-3</v>
       </c>
       <c r="E42" s="2">
-        <v>2.0431801468429921E-3</v>
+        <v>2.0146800232487823E-3</v>
       </c>
       <c r="F42" s="2">
-        <v>3.2324890705060006E-3</v>
+        <v>3.2208222606234043E-3</v>
       </c>
       <c r="G42" s="2">
-        <v>4.271525184480993E-3</v>
+        <v>4.2462038732995842E-3</v>
       </c>
       <c r="H42" s="2">
-        <v>5.6796417550331107E-3</v>
+        <v>5.6623473135916655E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>6.8250265785421141E-3</v>
+        <v>6.8095730455904916E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>7.851856788942119E-3</v>
+        <v>7.8383204941855494E-3</v>
       </c>
       <c r="K42" s="2">
-        <v>8.7490808817899338E-3</v>
+        <v>8.7374418202563354E-3</v>
       </c>
       <c r="L42" s="2">
-        <v>9.5162199940504611E-3</v>
+        <v>9.5063902085360738E-3</v>
       </c>
       <c r="M42" s="2">
-        <v>1.0159312468594155E-2</v>
+        <v>1.0151158626908307E-2</v>
       </c>
       <c r="N42" s="2">
-        <v>1.0688115940398904E-2</v>
+        <v>1.0681479076973069E-2</v>
       </c>
       <c r="O42" s="2">
-        <v>1.1114175355035925E-2</v>
+        <v>1.1108886637270323E-2</v>
       </c>
       <c r="P42" s="2">
-        <v>1.1449536549078411E-2</v>
+        <v>1.1445428619436288E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>1.1705936312209904E-2</v>
+        <v>1.1702850645116699E-2</v>
       </c>
       <c r="R42" s="2">
         <v>1.1705936312209904E-2</v>
@@ -2828,55 +2828,55 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2">
-        <v>6.6324933342395184E-4</v>
+        <v>6.6307591248501144E-4</v>
       </c>
       <c r="D43" s="2">
-        <v>1.8788567264528676E-3</v>
+        <v>1.8506775166120431E-3</v>
       </c>
       <c r="E43" s="2">
-        <v>3.1099561095831369E-3</v>
+        <v>3.0698397048508691E-3</v>
       </c>
       <c r="F43" s="2">
-        <v>4.58526175118356E-3</v>
+        <v>4.5723839961574093E-3</v>
       </c>
       <c r="G43" s="2">
-        <v>5.7378823176222719E-3</v>
+        <v>5.7075080669890532E-3</v>
       </c>
       <c r="H43" s="2">
-        <v>7.3060938668660976E-3</v>
+        <v>7.2876531407544357E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>8.4695234644434209E-3</v>
+        <v>8.4538712303646544E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>9.459596734441111E-3</v>
+        <v>9.4465047362788709E-3</v>
       </c>
       <c r="K43" s="2">
-        <v>1.0283400877880119E-2</v>
+        <v>1.0272626824756751E-2</v>
       </c>
       <c r="L43" s="2">
-        <v>1.0954595770088711E-2</v>
+        <v>1.0945891705204087E-2</v>
       </c>
       <c r="M43" s="2">
-        <v>1.1489668264260735E-2</v>
+        <v>1.1482787193715455E-2</v>
       </c>
       <c r="N43" s="2">
-        <v>1.1905773828570479E-2</v>
+        <v>1.1900477442205895E-2</v>
       </c>
       <c r="O43" s="2">
-        <v>1.2219480083714788E-2</v>
+        <v>1.2215545425454628E-2</v>
       </c>
       <c r="P43" s="2">
-        <v>1.2446081372567062E-2</v>
+        <v>1.2443305283415302E-2</v>
       </c>
       <c r="Q43" s="2">
-        <v>1.2599280737346312E-2</v>
+        <v>1.2597482012248293E-2</v>
       </c>
       <c r="R43" s="2">
         <v>1.2599280737346312E-2</v>
@@ -2884,55 +2884,55 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2">
-        <v>1.1895954433190231E-3</v>
+        <v>1.1893053567544926E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>2.9401899369934886E-3</v>
+        <v>2.89810189281553E-3</v>
       </c>
       <c r="E44" s="2">
-        <v>4.4045441231937658E-3</v>
+        <v>4.3510373164049763E-3</v>
       </c>
       <c r="F44" s="2">
-        <v>6.0498866056536505E-3</v>
+        <v>6.0366286622483287E-3</v>
       </c>
       <c r="G44" s="2">
-        <v>7.167900344370765E-3</v>
+        <v>7.1334987807695803E-3</v>
       </c>
       <c r="H44" s="2">
-        <v>8.7417139946052713E-3</v>
+        <v>8.7232221973378484E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>9.7829197908837328E-3</v>
+        <v>9.7680098655742297E-3</v>
       </c>
       <c r="J44" s="2">
-        <v>1.0619194226914626E-2</v>
+        <v>1.0607271534429846E-2</v>
       </c>
       <c r="K44" s="2">
-        <v>1.1278136640682014E-2</v>
+        <v>1.1268723909963325E-2</v>
       </c>
       <c r="L44" s="2">
-        <v>1.178674857356919E-2</v>
+        <v>1.1779454228833417E-2</v>
       </c>
       <c r="M44" s="2">
-        <v>1.2169433145962872E-2</v>
+        <v>1.2163926844653034E-2</v>
       </c>
       <c r="N44" s="2">
-        <v>1.2447467695031928E-2</v>
+        <v>1.2443466406261336E-2</v>
       </c>
       <c r="O44" s="2">
-        <v>1.2639036752622025E-2</v>
+        <v>1.263629694524096E-2</v>
       </c>
       <c r="P44" s="2">
-        <v>1.2759488325530342E-2</v>
+        <v>1.2757800903759909E-2</v>
       </c>
       <c r="Q44" s="2">
-        <v>1.2821669514479699E-2</v>
+        <v>1.2820855822636217E-2</v>
       </c>
       <c r="R44" s="2">
         <v>1.2821669514479699E-2</v>
@@ -2940,55 +2940,55 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2">
-        <v>2.1177265248792146E-3</v>
+        <v>2.1172453728078781E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>4.5570619216742216E-3</v>
+        <v>4.494605250605908E-3</v>
       </c>
       <c r="E45" s="2">
-        <v>6.191970190290174E-3</v>
+        <v>6.1215034239576784E-3</v>
       </c>
       <c r="F45" s="2">
-        <v>7.9247969341714325E-3</v>
+        <v>7.9126339408891345E-3</v>
       </c>
       <c r="G45" s="2">
-        <v>8.8862659467555272E-3</v>
+        <v>8.8483605802964788E-3</v>
       </c>
       <c r="H45" s="2">
-        <v>1.0378205302264062E-2</v>
+        <v>1.0360924943707158E-2</v>
       </c>
       <c r="I45" s="2">
-        <v>1.1212229582286896E-2</v>
+        <v>1.1199231825940219E-2</v>
       </c>
       <c r="J45" s="2">
-        <v>1.1830316745310435E-2</v>
+        <v>1.1820581220420264E-2</v>
       </c>
       <c r="K45" s="2">
-        <v>1.2278472348580883E-2</v>
+        <v>1.2271276734815957E-2</v>
       </c>
       <c r="L45" s="2">
-        <v>1.259353849482607E-2</v>
+        <v>1.2588360545990725E-2</v>
       </c>
       <c r="M45" s="2">
-        <v>1.2804217147332918E-2</v>
+        <v>1.2800664248472165E-2</v>
       </c>
       <c r="N45" s="2">
-        <v>1.2932752172933335E-2</v>
+        <v>1.2930518497513529E-2</v>
       </c>
       <c r="O45" s="2">
-        <v>1.2996429481377794E-2</v>
+        <v>1.2995270652223912E-2</v>
       </c>
       <c r="P45" s="2">
-        <v>1.3008756840518701E-2</v>
+        <v>1.3008474431091925E-2</v>
       </c>
       <c r="Q45" s="2">
-        <v>1.2980356978189484E-2</v>
+        <v>1.2980788393113207E-2</v>
       </c>
       <c r="R45" s="2">
         <v>1.2980356978189484E-2</v>
@@ -2996,55 +2996,55 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2">
-        <v>3.1904283679359369E-3</v>
+        <v>3.1897382028263921E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>6.2110377203899638E-3</v>
+        <v>6.1281035408551525E-3</v>
       </c>
       <c r="E46" s="2">
-        <v>7.9069117096246689E-3</v>
+        <v>7.821801094866113E-3</v>
       </c>
       <c r="F46" s="2">
-        <v>9.6231762902625438E-3</v>
+        <v>9.6135082421522477E-3</v>
       </c>
       <c r="G46" s="2">
-        <v>1.036466711586608E-2</v>
+        <v>1.0324905614061058E-2</v>
       </c>
       <c r="H46" s="2">
-        <v>1.1727143391134731E-2</v>
+        <v>1.1711941719996103E-2</v>
       </c>
       <c r="I46" s="2">
-        <v>1.2347403829886101E-2</v>
+        <v>1.2336845170184133E-2</v>
       </c>
       <c r="J46" s="2">
-        <v>1.2762433283632585E-2</v>
+        <v>1.2755168759685459E-2</v>
       </c>
       <c r="K46" s="2">
-        <v>1.3027642772059962E-2</v>
+        <v>1.3022780419267521E-2</v>
       </c>
       <c r="L46" s="2">
-        <v>1.3183008087189169E-2</v>
+        <v>1.3179950482467197E-2</v>
       </c>
       <c r="M46" s="2">
-        <v>1.3257017564639607E-2</v>
+        <v>1.3255349309717048E-2</v>
       </c>
       <c r="N46" s="2">
-        <v>1.3270101792666947E-2</v>
+        <v>1.3269521640388287E-2</v>
       </c>
       <c r="O46" s="2">
-        <v>1.323710976331857E-2</v>
+        <v>1.3237391039285219E-2</v>
       </c>
       <c r="P46" s="2">
-        <v>1.3169002413406943E-2</v>
+        <v>1.3169969658576416E-2</v>
       </c>
       <c r="Q46" s="2">
-        <v>1.3073996208200486E-2</v>
+        <v>1.3075510859899291E-2</v>
       </c>
       <c r="R46" s="2">
         <v>1.3073996208200486E-2</v>
@@ -3052,55 +3052,55 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
-        <v>4.7832685302698508E-3</v>
+        <v>4.7822851994173202E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>8.4055485589096812E-3</v>
+        <v>8.2961531072368259E-3</v>
       </c>
       <c r="E47" s="2">
-        <v>1.0013771593047418E-2</v>
+        <v>9.9120843696815439E-3</v>
       </c>
       <c r="F47" s="2">
-        <v>1.157616712435865E-2</v>
+        <v>1.1570764169530793E-2</v>
       </c>
       <c r="G47" s="2">
-        <v>1.1965659951358069E-2</v>
+        <v>1.1925023298699136E-2</v>
       </c>
       <c r="H47" s="2">
-        <v>1.3111116996919459E-2</v>
+        <v>1.3099137895119099E-2</v>
       </c>
       <c r="I47" s="2">
-        <v>1.345276336640691E-2</v>
+        <v>1.3445554537642386E-2</v>
       </c>
       <c r="J47" s="2">
-        <v>1.3623740267072852E-2</v>
+        <v>1.3619647417467871E-2</v>
       </c>
       <c r="K47" s="2">
-        <v>1.3682080061271399E-2</v>
+        <v>1.3680077901381656E-2</v>
       </c>
       <c r="L47" s="2">
-        <v>1.3665577330894968E-2</v>
+        <v>1.3665031191671199E-2</v>
       </c>
       <c r="M47" s="2">
-        <v>1.359857966886766E-2</v>
+        <v>1.3599084748317893E-2</v>
       </c>
       <c r="N47" s="2">
-        <v>1.34969116570532E-2</v>
+        <v>1.3498198179995438E-2</v>
       </c>
       <c r="O47" s="2">
-        <v>1.3371052469871837E-2</v>
+        <v>1.337293207299641E-2</v>
       </c>
       <c r="P47" s="2">
-        <v>1.3228106433125223E-2</v>
+        <v>1.3230441951565034E-2</v>
       </c>
       <c r="Q47" s="2">
-        <v>1.3073012905621822E-2</v>
+        <v>1.3075700998701095E-2</v>
       </c>
       <c r="R47" s="2">
         <v>1.3073012905621822E-2</v>
@@ -3108,55 +3108,55 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2">
-        <v>9.5973038281021838E-3</v>
+        <v>9.595687368281109E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>1.1516385969256533E-2</v>
+        <v>1.1373113472081876E-2</v>
       </c>
       <c r="E48" s="2">
-        <v>1.2214597034483337E-2</v>
+        <v>1.2101171528111835E-2</v>
       </c>
       <c r="F48" s="2">
-        <v>1.328241746089669E-2</v>
+        <v>1.3284837241187154E-2</v>
       </c>
       <c r="G48" s="2">
-        <v>1.3192779321612152E-2</v>
+        <v>1.3154001165948346E-2</v>
       </c>
       <c r="H48" s="2">
-        <v>1.4069921723542388E-2</v>
+        <v>1.4062113088823072E-2</v>
       </c>
       <c r="I48" s="2">
-        <v>1.4153768095768286E-2</v>
+        <v>1.4150152555760983E-2</v>
       </c>
       <c r="J48" s="2">
-        <v>1.4127212931634166E-2</v>
+        <v>1.4126165846070382E-2</v>
       </c>
       <c r="K48" s="2">
-        <v>1.4033589892754996E-2</v>
+        <v>1.4034148310882845E-2</v>
       </c>
       <c r="L48" s="2">
-        <v>1.3899433688138452E-2</v>
+        <v>1.3901033975751006E-2</v>
       </c>
       <c r="M48" s="2">
-        <v>1.3740665169372482E-2</v>
+        <v>1.3742970104038243E-2</v>
       </c>
       <c r="N48" s="2">
-        <v>1.3566882029302143E-2</v>
+        <v>1.3569681226749057E-2</v>
       </c>
       <c r="O48" s="2">
-        <v>1.3383976472693413E-2</v>
+        <v>1.3387131778223779E-2</v>
       </c>
       <c r="P48" s="2">
-        <v>1.3195660522207917E-2</v>
+        <v>1.3199076413947092E-2</v>
       </c>
       <c r="Q48" s="2">
-        <v>1.3004342974890304E-2</v>
+        <v>1.3007950350180182E-2</v>
       </c>
       <c r="R48" s="2">
         <v>1.3004342974890304E-2</v>
@@ -3164,55 +3164,55 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2">
-        <v>1.4640675082466116E-2</v>
+        <v>1.4638538718657459E-2</v>
       </c>
       <c r="D49" s="2">
-        <v>1.3448811024265102E-2</v>
+        <v>1.3283585757286255E-2</v>
       </c>
       <c r="E49" s="2">
-        <v>1.3428499565941093E-2</v>
+        <v>1.3308710440438926E-2</v>
       </c>
       <c r="F49" s="2">
-        <v>1.4152475471999387E-2</v>
+        <v>1.4159616382138914E-2</v>
       </c>
       <c r="G49" s="2">
-        <v>1.3771970787438243E-2</v>
+        <v>1.3734744395849851E-2</v>
       </c>
       <c r="H49" s="2">
-        <v>1.4486904569910052E-2</v>
+        <v>1.4481685366048627E-2</v>
       </c>
       <c r="I49" s="2">
-        <v>1.442903459200876E-2</v>
+        <v>1.4427639795639744E-2</v>
       </c>
       <c r="J49" s="2">
-        <v>1.4298591475002335E-2</v>
+        <v>1.4299421819720676E-2</v>
       </c>
       <c r="K49" s="2">
-        <v>1.412799985980176E-2</v>
+        <v>1.4130132224032999E-2</v>
       </c>
       <c r="L49" s="2">
-        <v>1.3936241414497173E-2</v>
+        <v>1.393915699955064E-2</v>
       </c>
       <c r="M49" s="2">
-        <v>1.3733955480441682E-2</v>
+        <v>1.3737359927062834E-2</v>
       </c>
       <c r="N49" s="2">
-        <v>1.3527027273174373E-2</v>
+        <v>1.353074794628382E-2</v>
       </c>
       <c r="O49" s="2">
-        <v>1.3318720311205645E-2</v>
+        <v>1.3322650921095776E-2</v>
       </c>
       <c r="P49" s="2">
-        <v>1.3110865174138207E-2</v>
+        <v>1.3114936523066013E-2</v>
       </c>
       <c r="Q49" s="2">
-        <v>1.2904505505841841E-2</v>
+        <v>1.2908670017724676E-2</v>
       </c>
       <c r="R49" s="2">
         <v>1.2904505505841841E-2</v>
@@ -3220,55 +3220,55 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2">
-        <v>2.2299612432390828E-2</v>
+        <v>2.229685821599248E-2</v>
       </c>
       <c r="D50" s="2">
-        <v>1.5033854016449303E-2</v>
+        <v>1.4847525828546555E-2</v>
       </c>
       <c r="E50" s="2">
-        <v>1.4348349904089997E-2</v>
+        <v>1.422262300269329E-2</v>
       </c>
       <c r="F50" s="2">
-        <v>1.4767376335136386E-2</v>
+        <v>1.4778311744048627E-2</v>
       </c>
       <c r="G50" s="2">
-        <v>1.4142496082765504E-2</v>
+        <v>1.4106942116213017E-2</v>
       </c>
       <c r="H50" s="2">
-        <v>1.4718267924277261E-2</v>
+        <v>1.4715452164000522E-2</v>
       </c>
       <c r="I50" s="2">
-        <v>1.4547607084513107E-2</v>
+        <v>1.4548327781116954E-2</v>
       </c>
       <c r="J50" s="2">
-        <v>1.4337232151003371E-2</v>
+        <v>1.4339878150724407E-2</v>
       </c>
       <c r="K50" s="2">
-        <v>1.4109349416628605E-2</v>
+        <v>1.4113016700412926E-2</v>
       </c>
       <c r="L50" s="2">
-        <v>1.3876151954988944E-2</v>
+        <v>1.3880355997736753E-2</v>
       </c>
       <c r="M50" s="2">
-        <v>1.3643675945642973E-2</v>
+        <v>1.3648160046296251E-2</v>
       </c>
       <c r="N50" s="2">
-        <v>1.3414654220021751E-2</v>
+        <v>1.3419280932716186E-2</v>
       </c>
       <c r="O50" s="2">
-        <v>1.3190170362046985E-2</v>
+        <v>1.3194863968360032E-2</v>
       </c>
       <c r="P50" s="2">
-        <v>1.2970528312528012E-2</v>
+        <v>1.2975245242137407E-2</v>
       </c>
       <c r="Q50" s="2">
-        <v>1.2755685764715505E-2</v>
+        <v>1.2760399551168176E-2</v>
       </c>
       <c r="R50" s="2">
         <v>1.2755685764715505E-2</v>
@@ -3276,55 +3276,55 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2">
-        <v>2.2401528555172478E-2</v>
+        <v>2.2398747142766188E-2</v>
       </c>
       <c r="D51" s="2">
-        <v>1.5419394166134383E-2</v>
+        <v>1.5229895418049052E-2</v>
       </c>
       <c r="E51" s="2">
-        <v>1.4589933361091979E-2</v>
+        <v>1.4461623970430142E-2</v>
       </c>
       <c r="F51" s="2">
-        <v>1.4902593131353756E-2</v>
+        <v>1.4913166716607928E-2</v>
       </c>
       <c r="G51" s="2">
-        <v>1.4208661959675579E-2</v>
+        <v>1.4172871135272389E-2</v>
       </c>
       <c r="H51" s="2">
-        <v>1.4748653025733751E-2</v>
+        <v>1.4745840381659801E-2</v>
       </c>
       <c r="I51" s="2">
-        <v>1.4557868358224013E-2</v>
+        <v>1.4558664819381223E-2</v>
       </c>
       <c r="J51" s="2">
-        <v>1.4336813476619617E-2</v>
+        <v>1.4339563079833499E-2</v>
       </c>
       <c r="K51" s="2">
-        <v>1.4103248238485556E-2</v>
+        <v>1.4107027806891548E-2</v>
       </c>
       <c r="L51" s="2">
-        <v>1.3866978453754541E-2</v>
+        <v>1.3871295420265054E-2</v>
       </c>
       <c r="M51" s="2">
-        <v>1.3632799918532936E-2</v>
+        <v>1.3637394408472024E-2</v>
       </c>
       <c r="N51" s="2">
-        <v>1.3402808962405914E-2</v>
+        <v>1.340754247349E-2</v>
       </c>
       <c r="O51" s="2">
-        <v>1.3177762086469294E-2</v>
+        <v>1.31825587369059E-2</v>
       </c>
       <c r="P51" s="2">
-        <v>1.2957792879774707E-2</v>
+        <v>1.2962609285574534E-2</v>
       </c>
       <c r="Q51" s="2">
-        <v>1.2742768017515586E-2</v>
+        <v>1.2747578011213645E-2</v>
       </c>
       <c r="R51" s="2">
         <v>1.2742768017515586E-2</v>
@@ -3332,55 +3332,55 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2">
-        <v>2.2501236518541273E-2</v>
+        <v>2.2498428434894562E-2</v>
       </c>
       <c r="D52" s="2">
-        <v>1.5800558245316808E-2</v>
+        <v>1.5607922313284481E-2</v>
       </c>
       <c r="E52" s="2">
-        <v>1.4828990285022227E-2</v>
+        <v>1.4698118252787358E-2</v>
       </c>
       <c r="F52" s="2">
-        <v>1.5035209788640088E-2</v>
+        <v>1.5045422922590312E-2</v>
       </c>
       <c r="G52" s="2">
-        <v>1.4272624670744721E-2</v>
+        <v>1.4236609176596181E-2</v>
       </c>
       <c r="H52" s="2">
-        <v>1.477723282784911E-2</v>
+        <v>1.4774431033855227E-2</v>
       </c>
       <c r="I52" s="2">
-        <v>1.4566803594607007E-2</v>
+        <v>1.4567682492788605E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>1.4335447263461887E-2</v>
+        <v>1.4338305946049965E-2</v>
       </c>
       <c r="K52" s="2">
-        <v>1.4096480098809056E-2</v>
+        <v>1.4100376333741954E-2</v>
       </c>
       <c r="L52" s="2">
-        <v>1.3857342991939152E-2</v>
+        <v>1.3861776337103032E-2</v>
       </c>
       <c r="M52" s="2">
-        <v>1.3621612892039676E-2</v>
+        <v>1.3626320463125619E-2</v>
       </c>
       <c r="N52" s="2">
-        <v>1.3390765767335191E-2</v>
+        <v>1.3395608145829744E-2</v>
       </c>
       <c r="O52" s="2">
-        <v>1.3165242176064209E-2</v>
+        <v>1.3170143430584466E-2</v>
       </c>
       <c r="P52" s="2">
-        <v>1.294501286610481E-2</v>
+        <v>1.2949929889691335E-2</v>
       </c>
       <c r="Q52" s="2">
-        <v>1.2729858577977456E-2</v>
+        <v>1.2734765574267521E-2</v>
       </c>
       <c r="R52" s="2">
         <v>1.2729858577977456E-2</v>
@@ -3388,55 +3388,55 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
-        <v>2.259946488796365E-2</v>
+        <v>2.2596630466779496E-2</v>
       </c>
       <c r="D53" s="2">
-        <v>1.6179927175545627E-2</v>
+        <v>1.5984166250083472E-2</v>
       </c>
       <c r="E53" s="2">
-        <v>1.5067135005238512E-2</v>
+        <v>1.4933703143892599E-2</v>
       </c>
       <c r="F53" s="2">
-        <v>1.5166171588034355E-2</v>
+        <v>1.5176023353043095E-2</v>
       </c>
       <c r="G53" s="2">
-        <v>1.4334882606675566E-2</v>
+        <v>1.4298652762503496E-2</v>
       </c>
       <c r="H53" s="2">
-        <v>1.4804269706611519E-2</v>
+        <v>1.4801486282719913E-2</v>
       </c>
       <c r="I53" s="2">
-        <v>1.4574533189749722E-2</v>
+        <v>1.4575501449427876E-2</v>
       </c>
       <c r="J53" s="2">
-        <v>1.4333173508339944E-2</v>
+        <v>1.433614719350265E-2</v>
       </c>
       <c r="K53" s="2">
-        <v>1.4089038727487357E-2</v>
+        <v>1.4093056537826951E-2</v>
       </c>
       <c r="L53" s="2">
-        <v>1.3847211815496509E-2</v>
+        <v>1.3851765550840976E-2</v>
       </c>
       <c r="M53" s="2">
-        <v>1.3610064091117317E-2</v>
+        <v>1.3614887999979166E-2</v>
       </c>
       <c r="N53" s="2">
-        <v>1.337846283714428E-2</v>
+        <v>1.3383416715915249E-2</v>
       </c>
       <c r="O53" s="2">
-        <v>1.3152541398873984E-2</v>
+        <v>1.3157549376763949E-2</v>
       </c>
       <c r="P53" s="2">
-        <v>1.2932113865996969E-2</v>
+        <v>1.293713320252067E-2</v>
       </c>
       <c r="Q53" s="2">
-        <v>1.2716879371546908E-2</v>
+        <v>1.2721884713268501E-2</v>
       </c>
       <c r="R53" s="2">
         <v>1.2716879371546908E-2</v>
@@ -3444,55 +3444,55 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2">
-        <v>3.1340064882004637E-2</v>
+        <v>3.133651273095979E-2</v>
       </c>
       <c r="D54" s="2">
-        <v>2.0432847793936733E-2</v>
+        <v>2.0199883816628298E-2</v>
       </c>
       <c r="E54" s="2">
-        <v>1.7390590535076123E-2</v>
+        <v>1.7236251997128967E-2</v>
       </c>
       <c r="F54" s="2">
-        <v>1.6465618767243687E-2</v>
+        <v>1.6474590303534837E-2</v>
       </c>
       <c r="G54" s="2">
-        <v>1.4996569766144083E-2</v>
+        <v>1.4958610583305899E-2</v>
       </c>
       <c r="H54" s="2">
-        <v>1.5133772705617861E-2</v>
+        <v>1.5131109321889264E-2</v>
       </c>
       <c r="I54" s="2">
-        <v>1.4698042553124076E-2</v>
+        <v>1.4699474156370615E-2</v>
       </c>
       <c r="J54" s="2">
-        <v>1.4335316000675049E-2</v>
+        <v>1.4338880759017118E-2</v>
       </c>
       <c r="K54" s="2">
-        <v>1.4017533999135958E-2</v>
+        <v>1.4022189009677059E-2</v>
       </c>
       <c r="L54" s="2">
-        <v>1.3729290086245349E-2</v>
+        <v>1.3734497798811557E-2</v>
       </c>
       <c r="M54" s="2">
-        <v>1.3461680734341373E-2</v>
+        <v>1.3467165869299285E-2</v>
       </c>
       <c r="N54" s="2">
-        <v>1.320933059327508E-2</v>
+        <v>1.3214950480134803E-2</v>
       </c>
       <c r="O54" s="2">
-        <v>1.2968848923028171E-2</v>
+        <v>1.2974527374284645E-2</v>
       </c>
       <c r="P54" s="2">
-        <v>1.2737998002742022E-2</v>
+        <v>1.2743692330576836E-2</v>
       </c>
       <c r="Q54" s="2">
-        <v>1.2515233776727169E-2</v>
+        <v>1.2520918495856969E-2</v>
       </c>
       <c r="R54" s="2">
         <v>1.2515233776727169E-2</v>
@@ -3500,55 +3500,55 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2">
-        <v>4.3203132923137141E-2</v>
+        <v>4.3198748290056002E-2</v>
       </c>
       <c r="D55" s="2">
-        <v>2.5555909445791634E-2</v>
+        <v>2.5283311423522199E-2</v>
       </c>
       <c r="E55" s="2">
-        <v>1.9676551917407071E-2</v>
+        <v>1.949827849126343E-2</v>
       </c>
       <c r="F55" s="2">
-        <v>1.7394667340473933E-2</v>
+        <v>1.7399594137045265E-2</v>
       </c>
       <c r="G55" s="2">
-        <v>1.5239546698273454E-2</v>
+        <v>1.5199919552769291E-2</v>
       </c>
       <c r="H55" s="2">
-        <v>1.504639032428653E-2</v>
+        <v>1.5043557872442203E-2</v>
       </c>
       <c r="I55" s="2">
-        <v>1.446035869335947E-2</v>
+        <v>1.4462380467794723E-2</v>
       </c>
       <c r="J55" s="2">
-        <v>1.4032495316061181E-2</v>
+        <v>1.40369890349355E-2</v>
       </c>
       <c r="K55" s="2">
-        <v>1.3690004032696655E-2</v>
+        <v>1.3695732645943495E-2</v>
       </c>
       <c r="L55" s="2">
-        <v>1.3395735828015712E-2</v>
+        <v>1.3402070954937718E-2</v>
       </c>
       <c r="M55" s="2">
-        <v>1.3130422516770717E-2</v>
+        <v>1.3137046281672317E-2</v>
       </c>
       <c r="N55" s="2">
-        <v>1.2883836978654287E-2</v>
+        <v>1.2890586922023543E-2</v>
       </c>
       <c r="O55" s="2">
-        <v>1.2650367091445749E-2</v>
+        <v>1.2657158097202663E-2</v>
       </c>
       <c r="P55" s="2">
-        <v>1.2426791541903204E-2</v>
+        <v>1.24335771801403E-2</v>
       </c>
       <c r="Q55" s="2">
-        <v>1.2211156095910293E-2</v>
+        <v>1.2217909610769403E-2</v>
       </c>
       <c r="R55" s="2">
         <v>1.2211156095910293E-2</v>
@@ -3556,55 +3556,55 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2">
-        <v>6.4447489936925215E-2</v>
+        <v>6.4441819757366278E-2</v>
       </c>
       <c r="D56" s="2">
-        <v>3.3358594303563235E-2</v>
+        <v>3.3030974095391664E-2</v>
       </c>
       <c r="E56" s="2">
-        <v>2.2843486048343676E-2</v>
+        <v>2.2636874056876324E-2</v>
       </c>
       <c r="F56" s="2">
-        <v>1.862680121061407E-2</v>
+        <v>1.8629145645047602E-2</v>
       </c>
       <c r="G56" s="2">
-        <v>1.5576930154833564E-2</v>
+        <v>1.5536956276477297E-2</v>
       </c>
       <c r="H56" s="2">
-        <v>1.4977489549343992E-2</v>
+        <v>1.4975856427543644E-2</v>
       </c>
       <c r="I56" s="2">
-        <v>1.4205187340184404E-2</v>
+        <v>1.4208979652036704E-2</v>
       </c>
       <c r="J56" s="2">
-        <v>1.369028432380634E-2</v>
+        <v>1.3696692036243227E-2</v>
       </c>
       <c r="K56" s="2">
-        <v>1.3306431543710489E-2</v>
+        <v>1.3314049117820978E-2</v>
       </c>
       <c r="L56" s="2">
-        <v>1.2992083209126081E-2</v>
+        <v>1.3000222541927186E-2</v>
       </c>
       <c r="M56" s="2">
-        <v>1.2716827052703513E-2</v>
+        <v>1.2725155540783416E-2</v>
       </c>
       <c r="N56" s="2">
-        <v>1.2465323609399387E-2</v>
+        <v>1.2473681757381878E-2</v>
       </c>
       <c r="O56" s="2">
-        <v>1.2229596917570539E-2</v>
+        <v>1.223790865166665E-2</v>
       </c>
       <c r="P56" s="2">
-        <v>1.2005315022091848E-2</v>
+        <v>1.2013544225786654E-2</v>
       </c>
       <c r="Q56" s="2">
-        <v>1.1789984806702871E-2</v>
+        <v>1.1798114448089807E-2</v>
       </c>
       <c r="R56" s="2">
         <v>1.1789984806702871E-2</v>
@@ -3612,55 +3612,55 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="2">
-        <v>9.4738184154571109E-2</v>
+        <v>9.4730995359496709E-2</v>
       </c>
       <c r="D57" s="2">
-        <v>4.2488353602947802E-2</v>
+        <v>4.2104713744941867E-2</v>
       </c>
       <c r="E57" s="2">
-        <v>2.6025813487094155E-2</v>
+        <v>2.5797013772589607E-2</v>
       </c>
       <c r="F57" s="2">
-        <v>1.9619153016157832E-2</v>
+        <v>1.9620971661369984E-2</v>
       </c>
       <c r="G57" s="2">
-        <v>1.5650812490979802E-2</v>
+        <v>1.5611792836047965E-2</v>
       </c>
       <c r="H57" s="2">
-        <v>1.4640444136795929E-2</v>
+        <v>1.4640027080524301E-2</v>
       </c>
       <c r="I57" s="2">
-        <v>1.3692445272857042E-2</v>
+        <v>1.3697612515524921E-2</v>
       </c>
       <c r="J57" s="2">
-        <v>1.3100738323526187E-2</v>
+        <v>1.3108522189131696E-2</v>
       </c>
       <c r="K57" s="2">
-        <v>1.2685019357095973E-2</v>
+        <v>1.2693972032836906E-2</v>
       </c>
       <c r="L57" s="2">
-        <v>1.2359707714006478E-2</v>
+        <v>1.2369134633728886E-2</v>
       </c>
       <c r="M57" s="2">
-        <v>1.2083430513272205E-2</v>
+        <v>1.2093002608912443E-2</v>
       </c>
       <c r="N57" s="2">
-        <v>1.1835744517640806E-2</v>
+        <v>1.184530770226069E-2</v>
       </c>
       <c r="O57" s="2">
-        <v>1.1606246934174239E-2</v>
+        <v>1.1615730086800597E-2</v>
       </c>
       <c r="P57" s="2">
-        <v>1.1389424341143338E-2</v>
+        <v>1.1398795359309401E-2</v>
       </c>
       <c r="Q57" s="2">
-        <v>1.1182191697824848E-2</v>
+        <v>1.119143668087786E-2</v>
       </c>
       <c r="R57" s="2">
         <v>1.1182191697824848E-2</v>
@@ -3668,55 +3668,55 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2">
-        <v>0.13135727138494457</v>
+        <v>0.1313485186749154</v>
       </c>
       <c r="D58" s="2">
-        <v>5.2901098590107096E-2</v>
+        <v>5.2463277283163176E-2</v>
       </c>
       <c r="E58" s="2">
-        <v>2.9350304378172622E-2</v>
+        <v>2.9101638015733851E-2</v>
       </c>
       <c r="F58" s="2">
-        <v>2.0434713564582277E-2</v>
+        <v>2.0435190399635799E-2</v>
       </c>
       <c r="G58" s="2">
-        <v>1.5502701545384185E-2</v>
+        <v>1.54648105166176E-2</v>
       </c>
       <c r="H58" s="2">
-        <v>1.4087856504405838E-2</v>
+        <v>1.4088327948003038E-2</v>
       </c>
       <c r="I58" s="2">
-        <v>1.3002413935388599E-2</v>
+        <v>1.3008796117961491E-2</v>
       </c>
       <c r="J58" s="2">
-        <v>1.2369778733096871E-2</v>
+        <v>1.2378922260657992E-2</v>
       </c>
       <c r="K58" s="2">
-        <v>1.1951080454631349E-2</v>
+        <v>1.1961455493909093E-2</v>
       </c>
       <c r="L58" s="2">
-        <v>1.1636727649779239E-2</v>
+        <v>1.1647596762572395E-2</v>
       </c>
       <c r="M58" s="2">
-        <v>1.137560934442966E-2</v>
+        <v>1.1386618735016443E-2</v>
       </c>
       <c r="N58" s="2">
-        <v>1.1143486295792555E-2</v>
+        <v>1.115446695722115E-2</v>
       </c>
       <c r="O58" s="2">
-        <v>1.0928622388814219E-2</v>
+        <v>1.0939494185787059E-2</v>
       </c>
       <c r="P58" s="2">
-        <v>1.0725167478899858E-2</v>
+        <v>1.0735893069469102E-2</v>
       </c>
       <c r="Q58" s="2">
-        <v>1.0530079033863162E-2</v>
+        <v>1.0540641754385108E-2</v>
       </c>
       <c r="R58" s="2">
         <v>1.0530079033863162E-2</v>
@@ -3724,55 +3724,55 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2">
-        <v>0.18144762729036534</v>
+        <v>0.18143680792398212</v>
       </c>
       <c r="D59" s="2">
-        <v>6.9015937973107594E-2</v>
+        <v>6.8499203305133954E-2</v>
       </c>
       <c r="E59" s="2">
-        <v>3.5490514881637285E-2</v>
+        <v>3.5220212809217277E-2</v>
       </c>
       <c r="F59" s="2">
-        <v>2.2784635507949156E-2</v>
+        <v>2.2792708846905159E-2</v>
       </c>
       <c r="G59" s="2">
-        <v>1.6219377646219311E-2</v>
+        <v>1.6185824207941558E-2</v>
       </c>
       <c r="H59" s="2">
-        <v>1.4108969526631137E-2</v>
+        <v>1.4113852807782039E-2</v>
       </c>
       <c r="I59" s="2">
-        <v>1.2695539201469905E-2</v>
+        <v>1.2705737371132156E-2</v>
       </c>
       <c r="J59" s="2">
-        <v>1.1896934216974533E-2</v>
+        <v>1.190939766654819E-2</v>
       </c>
       <c r="K59" s="2">
-        <v>1.1384166014579415E-2</v>
+        <v>1.1397466082571717E-2</v>
       </c>
       <c r="L59" s="2">
-        <v>1.1009782918820656E-2</v>
+        <v>1.1023262306003265E-2</v>
       </c>
       <c r="M59" s="2">
-        <v>1.0706294130172711E-2</v>
+        <v>1.0719658796970295E-2</v>
       </c>
       <c r="N59" s="2">
-        <v>1.0442068057842376E-2</v>
+        <v>1.0455193483548715E-2</v>
       </c>
       <c r="O59" s="2">
-        <v>1.0201825235054127E-2</v>
+        <v>1.0214665087384204E-2</v>
       </c>
       <c r="P59" s="2">
-        <v>9.9778719923308279E-3</v>
+        <v>9.9904152979347696E-3</v>
       </c>
       <c r="Q59" s="2">
-        <v>9.7661046654024374E-3</v>
+        <v>9.7783558397534619E-3</v>
       </c>
       <c r="R59" s="2">
         <v>9.7661046654024374E-3</v>
@@ -3780,55 +3780,55 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
-        <v>0.31262161932121435</v>
+        <v>0.31260666507405566</v>
       </c>
       <c r="D60" s="2">
-        <v>0.10739507881646862</v>
+        <v>0.10674880558142172</v>
       </c>
       <c r="E60" s="2">
-        <v>4.7338980717081501E-2</v>
+        <v>4.7059540428239129E-2</v>
       </c>
       <c r="F60" s="2">
-        <v>2.4898607629758759E-2</v>
+        <v>2.4918453657888417E-2</v>
       </c>
       <c r="G60" s="2">
-        <v>1.4694197910463719E-2</v>
+        <v>1.4672272538163122E-2</v>
       </c>
       <c r="H60" s="2">
-        <v>1.1061786385434522E-2</v>
+        <v>1.1069737196076112E-2</v>
       </c>
       <c r="I60" s="2">
-        <v>9.188356677406773E-3</v>
+        <v>9.1999904908701916E-3</v>
       </c>
       <c r="J60" s="2">
-        <v>8.2908590216486215E-3</v>
+        <v>8.3040850707327297E-3</v>
       </c>
       <c r="K60" s="2">
-        <v>7.8171621351668889E-3</v>
+        <v>7.8310166245409776E-3</v>
       </c>
       <c r="L60" s="2">
-        <v>7.5319352627228721E-3</v>
+        <v>7.5459717895693165E-3</v>
       </c>
       <c r="M60" s="2">
-        <v>7.3329580897157519E-3</v>
+        <v>7.3469688320824339E-3</v>
       </c>
       <c r="N60" s="2">
-        <v>7.1749842454615128E-3</v>
+        <v>7.1888721297724435E-3</v>
       </c>
       <c r="O60" s="2">
-        <v>7.0375966151656312E-3</v>
+        <v>7.0513164068021043E-3</v>
       </c>
       <c r="P60" s="2">
-        <v>6.9113864111697452E-3</v>
+        <v>6.9249173853890237E-3</v>
       </c>
       <c r="Q60" s="2">
-        <v>6.7919069192465932E-3</v>
+        <v>6.8052400838620238E-3</v>
       </c>
       <c r="R60" s="2">
         <v>6.7919069192465932E-3</v>
@@ -3836,55 +3836,55 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="2">
-        <v>0.72078300011774843</v>
+        <v>0.72077329668532397</v>
       </c>
       <c r="D61" s="2">
-        <v>6.247888121349645E-2</v>
+        <v>6.2143548567578505E-2</v>
       </c>
       <c r="E61" s="2">
-        <v>2.3897428356046191E-2</v>
+        <v>2.3788687795807634E-2</v>
       </c>
       <c r="F61" s="2">
-        <v>1.1888063826333296E-2</v>
+        <v>1.1913587319295798E-2</v>
       </c>
       <c r="G61" s="2">
-        <v>6.8124708740509637E-3</v>
+        <v>6.8113820173448473E-3</v>
       </c>
       <c r="H61" s="2">
-        <v>5.0367505648470368E-3</v>
+        <v>5.0468289743241081E-3</v>
       </c>
       <c r="I61" s="2">
-        <v>4.1255547412570705E-3</v>
+        <v>4.1358831063521336E-3</v>
       </c>
       <c r="J61" s="2">
-        <v>3.6785810175118563E-3</v>
+        <v>3.6888523143964623E-3</v>
       </c>
       <c r="K61" s="2">
-        <v>3.4311375379596889E-3</v>
+        <v>3.4411984260794498E-3</v>
       </c>
       <c r="L61" s="2">
-        <v>3.2725404548272496E-3</v>
+        <v>3.2823219579605654E-3</v>
       </c>
       <c r="M61" s="2">
-        <v>3.1553136728563083E-3</v>
+        <v>3.1647901423425052E-3</v>
       </c>
       <c r="N61" s="2">
-        <v>3.0586057603734836E-3</v>
+        <v>3.0677728328618974E-3</v>
       </c>
       <c r="O61" s="2">
-        <v>2.9730274728827001E-3</v>
+        <v>2.9818907966145999E-3</v>
       </c>
       <c r="P61" s="2">
-        <v>2.8942222570341736E-3</v>
+        <v>2.9027918910559665E-3</v>
       </c>
       <c r="Q61" s="2">
-        <v>2.820085675717521E-3</v>
+        <v>2.8283733657231357E-3</v>
       </c>
       <c r="R61" s="2">
         <v>2.820085675717521E-3</v>

--- a/data/pds.xlsx
+++ b/data/pds.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,7 +146,7 @@
     <t>tertiary</t>
   </si>
   <si>
-    <t>CRR</t>
+    <t>CRR2</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
